--- a/Banco Central/Estadísticas Monetarias y Financieras/Medidas excepcionales de liquidez/Liquidez en pesos con incentivo al crédito 2020 - Diaria.xlsx
+++ b/Banco Central/Estadísticas Monetarias y Financieras/Medidas excepcionales de liquidez/Liquidez en pesos con incentivo al crédito 2020 - Diaria.xlsx
@@ -19,831 +19,6 @@
     <t>Serie</t>
   </si>
   <si>
-    <t>30.Mar.2020</t>
-  </si>
-  <si>
-    <t>31.Mar.2020</t>
-  </si>
-  <si>
-    <t>01.Abr.2020</t>
-  </si>
-  <si>
-    <t>02.Abr.2020</t>
-  </si>
-  <si>
-    <t>03.Abr.2020</t>
-  </si>
-  <si>
-    <t>04.Abr.2020</t>
-  </si>
-  <si>
-    <t>05.Abr.2020</t>
-  </si>
-  <si>
-    <t>06.Abr.2020</t>
-  </si>
-  <si>
-    <t>07.Abr.2020</t>
-  </si>
-  <si>
-    <t>08.Abr.2020</t>
-  </si>
-  <si>
-    <t>09.Abr.2020</t>
-  </si>
-  <si>
-    <t>10.Abr.2020</t>
-  </si>
-  <si>
-    <t>11.Abr.2020</t>
-  </si>
-  <si>
-    <t>12.Abr.2020</t>
-  </si>
-  <si>
-    <t>13.Abr.2020</t>
-  </si>
-  <si>
-    <t>14.Abr.2020</t>
-  </si>
-  <si>
-    <t>15.Abr.2020</t>
-  </si>
-  <si>
-    <t>16.Abr.2020</t>
-  </si>
-  <si>
-    <t>17.Abr.2020</t>
-  </si>
-  <si>
-    <t>18.Abr.2020</t>
-  </si>
-  <si>
-    <t>19.Abr.2020</t>
-  </si>
-  <si>
-    <t>20.Abr.2020</t>
-  </si>
-  <si>
-    <t>21.Abr.2020</t>
-  </si>
-  <si>
-    <t>22.Abr.2020</t>
-  </si>
-  <si>
-    <t>23.Abr.2020</t>
-  </si>
-  <si>
-    <t>24.Abr.2020</t>
-  </si>
-  <si>
-    <t>25.Abr.2020</t>
-  </si>
-  <si>
-    <t>26.Abr.2020</t>
-  </si>
-  <si>
-    <t>27.Abr.2020</t>
-  </si>
-  <si>
-    <t>28.Abr.2020</t>
-  </si>
-  <si>
-    <t>29.Abr.2020</t>
-  </si>
-  <si>
-    <t>30.Abr.2020</t>
-  </si>
-  <si>
-    <t>01.May.2020</t>
-  </si>
-  <si>
-    <t>02.May.2020</t>
-  </si>
-  <si>
-    <t>03.May.2020</t>
-  </si>
-  <si>
-    <t>04.May.2020</t>
-  </si>
-  <si>
-    <t>05.May.2020</t>
-  </si>
-  <si>
-    <t>06.May.2020</t>
-  </si>
-  <si>
-    <t>07.May.2020</t>
-  </si>
-  <si>
-    <t>08.May.2020</t>
-  </si>
-  <si>
-    <t>09.May.2020</t>
-  </si>
-  <si>
-    <t>10.May.2020</t>
-  </si>
-  <si>
-    <t>11.May.2020</t>
-  </si>
-  <si>
-    <t>12.May.2020</t>
-  </si>
-  <si>
-    <t>13.May.2020</t>
-  </si>
-  <si>
-    <t>14.May.2020</t>
-  </si>
-  <si>
-    <t>15.May.2020</t>
-  </si>
-  <si>
-    <t>16.May.2020</t>
-  </si>
-  <si>
-    <t>17.May.2020</t>
-  </si>
-  <si>
-    <t>18.May.2020</t>
-  </si>
-  <si>
-    <t>19.May.2020</t>
-  </si>
-  <si>
-    <t>20.May.2020</t>
-  </si>
-  <si>
-    <t>21.May.2020</t>
-  </si>
-  <si>
-    <t>22.May.2020</t>
-  </si>
-  <si>
-    <t>23.May.2020</t>
-  </si>
-  <si>
-    <t>24.May.2020</t>
-  </si>
-  <si>
-    <t>25.May.2020</t>
-  </si>
-  <si>
-    <t>26.May.2020</t>
-  </si>
-  <si>
-    <t>27.May.2020</t>
-  </si>
-  <si>
-    <t>28.May.2020</t>
-  </si>
-  <si>
-    <t>29.May.2020</t>
-  </si>
-  <si>
-    <t>30.May.2020</t>
-  </si>
-  <si>
-    <t>31.May.2020</t>
-  </si>
-  <si>
-    <t>01.Jun.2020</t>
-  </si>
-  <si>
-    <t>02.Jun.2020</t>
-  </si>
-  <si>
-    <t>03.Jun.2020</t>
-  </si>
-  <si>
-    <t>04.Jun.2020</t>
-  </si>
-  <si>
-    <t>05.Jun.2020</t>
-  </si>
-  <si>
-    <t>06.Jun.2020</t>
-  </si>
-  <si>
-    <t>07.Jun.2020</t>
-  </si>
-  <si>
-    <t>08.Jun.2020</t>
-  </si>
-  <si>
-    <t>09.Jun.2020</t>
-  </si>
-  <si>
-    <t>10.Jun.2020</t>
-  </si>
-  <si>
-    <t>11.Jun.2020</t>
-  </si>
-  <si>
-    <t>12.Jun.2020</t>
-  </si>
-  <si>
-    <t>13.Jun.2020</t>
-  </si>
-  <si>
-    <t>14.Jun.2020</t>
-  </si>
-  <si>
-    <t>15.Jun.2020</t>
-  </si>
-  <si>
-    <t>16.Jun.2020</t>
-  </si>
-  <si>
-    <t>17.Jun.2020</t>
-  </si>
-  <si>
-    <t>18.Jun.2020</t>
-  </si>
-  <si>
-    <t>19.Jun.2020</t>
-  </si>
-  <si>
-    <t>20.Jun.2020</t>
-  </si>
-  <si>
-    <t>21.Jun.2020</t>
-  </si>
-  <si>
-    <t>22.Jun.2020</t>
-  </si>
-  <si>
-    <t>23.Jun.2020</t>
-  </si>
-  <si>
-    <t>24.Jun.2020</t>
-  </si>
-  <si>
-    <t>25.Jun.2020</t>
-  </si>
-  <si>
-    <t>26.Jun.2020</t>
-  </si>
-  <si>
-    <t>27.Jun.2020</t>
-  </si>
-  <si>
-    <t>28.Jun.2020</t>
-  </si>
-  <si>
-    <t>29.Jun.2020</t>
-  </si>
-  <si>
-    <t>30.Jun.2020</t>
-  </si>
-  <si>
-    <t>01.Jul.2020</t>
-  </si>
-  <si>
-    <t>02.Jul.2020</t>
-  </si>
-  <si>
-    <t>03.Jul.2020</t>
-  </si>
-  <si>
-    <t>04.Jul.2020</t>
-  </si>
-  <si>
-    <t>05.Jul.2020</t>
-  </si>
-  <si>
-    <t>06.Jul.2020</t>
-  </si>
-  <si>
-    <t>07.Jul.2020</t>
-  </si>
-  <si>
-    <t>08.Jul.2020</t>
-  </si>
-  <si>
-    <t>09.Jul.2020</t>
-  </si>
-  <si>
-    <t>10.Jul.2020</t>
-  </si>
-  <si>
-    <t>11.Jul.2020</t>
-  </si>
-  <si>
-    <t>12.Jul.2020</t>
-  </si>
-  <si>
-    <t>13.Jul.2020</t>
-  </si>
-  <si>
-    <t>14.Jul.2020</t>
-  </si>
-  <si>
-    <t>15.Jul.2020</t>
-  </si>
-  <si>
-    <t>16.Jul.2020</t>
-  </si>
-  <si>
-    <t>17.Jul.2020</t>
-  </si>
-  <si>
-    <t>18.Jul.2020</t>
-  </si>
-  <si>
-    <t>19.Jul.2020</t>
-  </si>
-  <si>
-    <t>20.Jul.2020</t>
-  </si>
-  <si>
-    <t>21.Jul.2020</t>
-  </si>
-  <si>
-    <t>22.Jul.2020</t>
-  </si>
-  <si>
-    <t>23.Jul.2020</t>
-  </si>
-  <si>
-    <t>24.Jul.2020</t>
-  </si>
-  <si>
-    <t>25.Jul.2020</t>
-  </si>
-  <si>
-    <t>26.Jul.2020</t>
-  </si>
-  <si>
-    <t>27.Jul.2020</t>
-  </si>
-  <si>
-    <t>28.Jul.2020</t>
-  </si>
-  <si>
-    <t>29.Jul.2020</t>
-  </si>
-  <si>
-    <t>30.Jul.2020</t>
-  </si>
-  <si>
-    <t>31.Jul.2020</t>
-  </si>
-  <si>
-    <t>01.Ago.2020</t>
-  </si>
-  <si>
-    <t>02.Ago.2020</t>
-  </si>
-  <si>
-    <t>03.Ago.2020</t>
-  </si>
-  <si>
-    <t>04.Ago.2020</t>
-  </si>
-  <si>
-    <t>05.Ago.2020</t>
-  </si>
-  <si>
-    <t>06.Ago.2020</t>
-  </si>
-  <si>
-    <t>07.Ago.2020</t>
-  </si>
-  <si>
-    <t>08.Ago.2020</t>
-  </si>
-  <si>
-    <t>09.Ago.2020</t>
-  </si>
-  <si>
-    <t>10.Ago.2020</t>
-  </si>
-  <si>
-    <t>11.Ago.2020</t>
-  </si>
-  <si>
-    <t>12.Ago.2020</t>
-  </si>
-  <si>
-    <t>13.Ago.2020</t>
-  </si>
-  <si>
-    <t>14.Ago.2020</t>
-  </si>
-  <si>
-    <t>15.Ago.2020</t>
-  </si>
-  <si>
-    <t>16.Ago.2020</t>
-  </si>
-  <si>
-    <t>17.Ago.2020</t>
-  </si>
-  <si>
-    <t>18.Ago.2020</t>
-  </si>
-  <si>
-    <t>19.Ago.2020</t>
-  </si>
-  <si>
-    <t>20.Ago.2020</t>
-  </si>
-  <si>
-    <t>21.Ago.2020</t>
-  </si>
-  <si>
-    <t>24.Ago.2020</t>
-  </si>
-  <si>
-    <t>25.Ago.2020</t>
-  </si>
-  <si>
-    <t>26.Ago.2020</t>
-  </si>
-  <si>
-    <t>27.Ago.2020</t>
-  </si>
-  <si>
-    <t>28.Ago.2020</t>
-  </si>
-  <si>
-    <t>29.Ago.2020</t>
-  </si>
-  <si>
-    <t>30.Ago.2020</t>
-  </si>
-  <si>
-    <t>31.Ago.2020</t>
-  </si>
-  <si>
-    <t>01.Sep.2020</t>
-  </si>
-  <si>
-    <t>02.Sep.2020</t>
-  </si>
-  <si>
-    <t>03.Sep.2020</t>
-  </si>
-  <si>
-    <t>04.Sep.2020</t>
-  </si>
-  <si>
-    <t>05.Sep.2020</t>
-  </si>
-  <si>
-    <t>06.Sep.2020</t>
-  </si>
-  <si>
-    <t>07.Sep.2020</t>
-  </si>
-  <si>
-    <t>08.Sep.2020</t>
-  </si>
-  <si>
-    <t>09.Sep.2020</t>
-  </si>
-  <si>
-    <t>10.Sep.2020</t>
-  </si>
-  <si>
-    <t>11.Sep.2020</t>
-  </si>
-  <si>
-    <t>12.Sep.2020</t>
-  </si>
-  <si>
-    <t>13.Sep.2020</t>
-  </si>
-  <si>
-    <t>14.Sep.2020</t>
-  </si>
-  <si>
-    <t>15.Sep.2020</t>
-  </si>
-  <si>
-    <t>16.Sep.2020</t>
-  </si>
-  <si>
-    <t>17.Sep.2020</t>
-  </si>
-  <si>
-    <t>18.Sep.2020</t>
-  </si>
-  <si>
-    <t>19.Sep.2020</t>
-  </si>
-  <si>
-    <t>20.Sep.2020</t>
-  </si>
-  <si>
-    <t>21.Sep.2020</t>
-  </si>
-  <si>
-    <t>22.Sep.2020</t>
-  </si>
-  <si>
-    <t>23.Sep.2020</t>
-  </si>
-  <si>
-    <t>24.Sep.2020</t>
-  </si>
-  <si>
-    <t>25.Sep.2020</t>
-  </si>
-  <si>
-    <t>26.Sep.2020</t>
-  </si>
-  <si>
-    <t>27.Sep.2020</t>
-  </si>
-  <si>
-    <t>28.Sep.2020</t>
-  </si>
-  <si>
-    <t>29.Sep.2020</t>
-  </si>
-  <si>
-    <t>30.Sep.2020</t>
-  </si>
-  <si>
-    <t>01.Oct.2020</t>
-  </si>
-  <si>
-    <t>02.Oct.2020</t>
-  </si>
-  <si>
-    <t>03.Oct.2020</t>
-  </si>
-  <si>
-    <t>04.Oct.2020</t>
-  </si>
-  <si>
-    <t>05.Oct.2020</t>
-  </si>
-  <si>
-    <t>06.Oct.2020</t>
-  </si>
-  <si>
-    <t>07.Oct.2020</t>
-  </si>
-  <si>
-    <t>08.Oct.2020</t>
-  </si>
-  <si>
-    <t>09.Oct.2020</t>
-  </si>
-  <si>
-    <t>10.Oct.2020</t>
-  </si>
-  <si>
-    <t>11.Oct.2020</t>
-  </si>
-  <si>
-    <t>12.Oct.2020</t>
-  </si>
-  <si>
-    <t>13.Oct.2020</t>
-  </si>
-  <si>
-    <t>14.Oct.2020</t>
-  </si>
-  <si>
-    <t>15.Oct.2020</t>
-  </si>
-  <si>
-    <t>16.Oct.2020</t>
-  </si>
-  <si>
-    <t>17.Oct.2020</t>
-  </si>
-  <si>
-    <t>18.Oct.2020</t>
-  </si>
-  <si>
-    <t>19.Oct.2020</t>
-  </si>
-  <si>
-    <t>20.Oct.2020</t>
-  </si>
-  <si>
-    <t>21.Oct.2020</t>
-  </si>
-  <si>
-    <t>22.Oct.2020</t>
-  </si>
-  <si>
-    <t>23.Oct.2020</t>
-  </si>
-  <si>
-    <t>24.Oct.2020</t>
-  </si>
-  <si>
-    <t>25.Oct.2020</t>
-  </si>
-  <si>
-    <t>26.Oct.2020</t>
-  </si>
-  <si>
-    <t>27.Oct.2020</t>
-  </si>
-  <si>
-    <t>28.Oct.2020</t>
-  </si>
-  <si>
-    <t>29.Oct.2020</t>
-  </si>
-  <si>
-    <t>30.Oct.2020</t>
-  </si>
-  <si>
-    <t>31.Oct.2020</t>
-  </si>
-  <si>
-    <t>01.Nov.2020</t>
-  </si>
-  <si>
-    <t>02.Nov.2020</t>
-  </si>
-  <si>
-    <t>03.Nov.2020</t>
-  </si>
-  <si>
-    <t>04.Nov.2020</t>
-  </si>
-  <si>
-    <t>05.Nov.2020</t>
-  </si>
-  <si>
-    <t>06.Nov.2020</t>
-  </si>
-  <si>
-    <t>07.Nov.2020</t>
-  </si>
-  <si>
-    <t>08.Nov.2020</t>
-  </si>
-  <si>
-    <t>09.Nov.2020</t>
-  </si>
-  <si>
-    <t>10.Nov.2020</t>
-  </si>
-  <si>
-    <t>11.Nov.2020</t>
-  </si>
-  <si>
-    <t>12.Nov.2020</t>
-  </si>
-  <si>
-    <t>13.Nov.2020</t>
-  </si>
-  <si>
-    <t>14.Nov.2020</t>
-  </si>
-  <si>
-    <t>15.Nov.2020</t>
-  </si>
-  <si>
-    <t>16.Nov.2020</t>
-  </si>
-  <si>
-    <t>17.Nov.2020</t>
-  </si>
-  <si>
-    <t>18.Nov.2020</t>
-  </si>
-  <si>
-    <t>19.Nov.2020</t>
-  </si>
-  <si>
-    <t>20.Nov.2020</t>
-  </si>
-  <si>
-    <t>21.Nov.2020</t>
-  </si>
-  <si>
-    <t>22.Nov.2020</t>
-  </si>
-  <si>
-    <t>23.Nov.2020</t>
-  </si>
-  <si>
-    <t>24.Nov.2020</t>
-  </si>
-  <si>
-    <t>25.Nov.2020</t>
-  </si>
-  <si>
-    <t>26.Nov.2020</t>
-  </si>
-  <si>
-    <t>27.Nov.2020</t>
-  </si>
-  <si>
-    <t>28.Nov.2020</t>
-  </si>
-  <si>
-    <t>29.Nov.2020</t>
-  </si>
-  <si>
-    <t>30.Nov.2020</t>
-  </si>
-  <si>
-    <t>01.Dic.2020</t>
-  </si>
-  <si>
-    <t>02.Dic.2020</t>
-  </si>
-  <si>
-    <t>03.Dic.2020</t>
-  </si>
-  <si>
-    <t>04.Dic.2020</t>
-  </si>
-  <si>
-    <t>05.Dic.2020</t>
-  </si>
-  <si>
-    <t>06.Dic.2020</t>
-  </si>
-  <si>
-    <t>07.Dic.2020</t>
-  </si>
-  <si>
-    <t>08.Dic.2020</t>
-  </si>
-  <si>
-    <t>09.Dic.2020</t>
-  </si>
-  <si>
-    <t>10.Dic.2020</t>
-  </si>
-  <si>
-    <t>11.Dic.2020</t>
-  </si>
-  <si>
-    <t>12.Dic.2020</t>
-  </si>
-  <si>
-    <t>13.Dic.2020</t>
-  </si>
-  <si>
-    <t>14.Dic.2020</t>
-  </si>
-  <si>
-    <t>15.Dic.2020</t>
-  </si>
-  <si>
-    <t>16.Dic.2020</t>
-  </si>
-  <si>
-    <t>17.Dic.2020</t>
-  </si>
-  <si>
-    <t>18.Dic.2020</t>
-  </si>
-  <si>
-    <t>19.Dic.2020</t>
-  </si>
-  <si>
-    <t>20.Dic.2020</t>
-  </si>
-  <si>
-    <t>21.Dic.2020</t>
-  </si>
-  <si>
-    <t>22.Dic.2020</t>
-  </si>
-  <si>
-    <t>23.Dic.2020</t>
-  </si>
-  <si>
-    <t>24.Dic.2020</t>
-  </si>
-  <si>
-    <t>25.Dic.2020</t>
-  </si>
-  <si>
-    <t>26.Dic.2020</t>
-  </si>
-  <si>
-    <t>27.Dic.2020</t>
-  </si>
-  <si>
-    <t>28.Dic.2020</t>
-  </si>
-  <si>
-    <t>29.Dic.2020</t>
-  </si>
-  <si>
-    <t>30.Dic.2020</t>
-  </si>
-  <si>
-    <t>31.Dic.2020</t>
-  </si>
-  <si>
     <t>Línea inicial 3%: Uso actual FCIC 1 (1)</t>
   </si>
   <si>
@@ -860,6 +35,831 @@
   </si>
   <si>
     <t>FCIC 3: Uso actual (4)</t>
+  </si>
+  <si>
+    <t>30-03-2020</t>
+  </si>
+  <si>
+    <t>31-03-2020</t>
+  </si>
+  <si>
+    <t>01-04-2020</t>
+  </si>
+  <si>
+    <t>02-04-2020</t>
+  </si>
+  <si>
+    <t>03-04-2020</t>
+  </si>
+  <si>
+    <t>04-04-2020</t>
+  </si>
+  <si>
+    <t>05-04-2020</t>
+  </si>
+  <si>
+    <t>06-04-2020</t>
+  </si>
+  <si>
+    <t>07-04-2020</t>
+  </si>
+  <si>
+    <t>08-04-2020</t>
+  </si>
+  <si>
+    <t>09-04-2020</t>
+  </si>
+  <si>
+    <t>10-04-2020</t>
+  </si>
+  <si>
+    <t>11-04-2020</t>
+  </si>
+  <si>
+    <t>12-04-2020</t>
+  </si>
+  <si>
+    <t>13-04-2020</t>
+  </si>
+  <si>
+    <t>14-04-2020</t>
+  </si>
+  <si>
+    <t>15-04-2020</t>
+  </si>
+  <si>
+    <t>16-04-2020</t>
+  </si>
+  <si>
+    <t>17-04-2020</t>
+  </si>
+  <si>
+    <t>18-04-2020</t>
+  </si>
+  <si>
+    <t>19-04-2020</t>
+  </si>
+  <si>
+    <t>20-04-2020</t>
+  </si>
+  <si>
+    <t>21-04-2020</t>
+  </si>
+  <si>
+    <t>22-04-2020</t>
+  </si>
+  <si>
+    <t>23-04-2020</t>
+  </si>
+  <si>
+    <t>24-04-2020</t>
+  </si>
+  <si>
+    <t>25-04-2020</t>
+  </si>
+  <si>
+    <t>26-04-2020</t>
+  </si>
+  <si>
+    <t>27-04-2020</t>
+  </si>
+  <si>
+    <t>28-04-2020</t>
+  </si>
+  <si>
+    <t>29-04-2020</t>
+  </si>
+  <si>
+    <t>30-04-2020</t>
+  </si>
+  <si>
+    <t>01-05-2020</t>
+  </si>
+  <si>
+    <t>02-05-2020</t>
+  </si>
+  <si>
+    <t>03-05-2020</t>
+  </si>
+  <si>
+    <t>04-05-2020</t>
+  </si>
+  <si>
+    <t>05-05-2020</t>
+  </si>
+  <si>
+    <t>06-05-2020</t>
+  </si>
+  <si>
+    <t>07-05-2020</t>
+  </si>
+  <si>
+    <t>08-05-2020</t>
+  </si>
+  <si>
+    <t>09-05-2020</t>
+  </si>
+  <si>
+    <t>10-05-2020</t>
+  </si>
+  <si>
+    <t>11-05-2020</t>
+  </si>
+  <si>
+    <t>12-05-2020</t>
+  </si>
+  <si>
+    <t>13-05-2020</t>
+  </si>
+  <si>
+    <t>14-05-2020</t>
+  </si>
+  <si>
+    <t>15-05-2020</t>
+  </si>
+  <si>
+    <t>16-05-2020</t>
+  </si>
+  <si>
+    <t>17-05-2020</t>
+  </si>
+  <si>
+    <t>18-05-2020</t>
+  </si>
+  <si>
+    <t>19-05-2020</t>
+  </si>
+  <si>
+    <t>20-05-2020</t>
+  </si>
+  <si>
+    <t>21-05-2020</t>
+  </si>
+  <si>
+    <t>22-05-2020</t>
+  </si>
+  <si>
+    <t>23-05-2020</t>
+  </si>
+  <si>
+    <t>24-05-2020</t>
+  </si>
+  <si>
+    <t>25-05-2020</t>
+  </si>
+  <si>
+    <t>26-05-2020</t>
+  </si>
+  <si>
+    <t>27-05-2020</t>
+  </si>
+  <si>
+    <t>28-05-2020</t>
+  </si>
+  <si>
+    <t>29-05-2020</t>
+  </si>
+  <si>
+    <t>30-05-2020</t>
+  </si>
+  <si>
+    <t>31-05-2020</t>
+  </si>
+  <si>
+    <t>01-06-2020</t>
+  </si>
+  <si>
+    <t>02-06-2020</t>
+  </si>
+  <si>
+    <t>03-06-2020</t>
+  </si>
+  <si>
+    <t>04-06-2020</t>
+  </si>
+  <si>
+    <t>05-06-2020</t>
+  </si>
+  <si>
+    <t>06-06-2020</t>
+  </si>
+  <si>
+    <t>07-06-2020</t>
+  </si>
+  <si>
+    <t>08-06-2020</t>
+  </si>
+  <si>
+    <t>09-06-2020</t>
+  </si>
+  <si>
+    <t>10-06-2020</t>
+  </si>
+  <si>
+    <t>11-06-2020</t>
+  </si>
+  <si>
+    <t>12-06-2020</t>
+  </si>
+  <si>
+    <t>13-06-2020</t>
+  </si>
+  <si>
+    <t>14-06-2020</t>
+  </si>
+  <si>
+    <t>15-06-2020</t>
+  </si>
+  <si>
+    <t>16-06-2020</t>
+  </si>
+  <si>
+    <t>17-06-2020</t>
+  </si>
+  <si>
+    <t>18-06-2020</t>
+  </si>
+  <si>
+    <t>19-06-2020</t>
+  </si>
+  <si>
+    <t>20-06-2020</t>
+  </si>
+  <si>
+    <t>21-06-2020</t>
+  </si>
+  <si>
+    <t>22-06-2020</t>
+  </si>
+  <si>
+    <t>23-06-2020</t>
+  </si>
+  <si>
+    <t>24-06-2020</t>
+  </si>
+  <si>
+    <t>25-06-2020</t>
+  </si>
+  <si>
+    <t>26-06-2020</t>
+  </si>
+  <si>
+    <t>27-06-2020</t>
+  </si>
+  <si>
+    <t>28-06-2020</t>
+  </si>
+  <si>
+    <t>29-06-2020</t>
+  </si>
+  <si>
+    <t>30-06-2020</t>
+  </si>
+  <si>
+    <t>01-07-2020</t>
+  </si>
+  <si>
+    <t>02-07-2020</t>
+  </si>
+  <si>
+    <t>03-07-2020</t>
+  </si>
+  <si>
+    <t>04-07-2020</t>
+  </si>
+  <si>
+    <t>05-07-2020</t>
+  </si>
+  <si>
+    <t>06-07-2020</t>
+  </si>
+  <si>
+    <t>07-07-2020</t>
+  </si>
+  <si>
+    <t>08-07-2020</t>
+  </si>
+  <si>
+    <t>09-07-2020</t>
+  </si>
+  <si>
+    <t>10-07-2020</t>
+  </si>
+  <si>
+    <t>11-07-2020</t>
+  </si>
+  <si>
+    <t>12-07-2020</t>
+  </si>
+  <si>
+    <t>13-07-2020</t>
+  </si>
+  <si>
+    <t>14-07-2020</t>
+  </si>
+  <si>
+    <t>15-07-2020</t>
+  </si>
+  <si>
+    <t>16-07-2020</t>
+  </si>
+  <si>
+    <t>17-07-2020</t>
+  </si>
+  <si>
+    <t>18-07-2020</t>
+  </si>
+  <si>
+    <t>19-07-2020</t>
+  </si>
+  <si>
+    <t>20-07-2020</t>
+  </si>
+  <si>
+    <t>21-07-2020</t>
+  </si>
+  <si>
+    <t>22-07-2020</t>
+  </si>
+  <si>
+    <t>23-07-2020</t>
+  </si>
+  <si>
+    <t>24-07-2020</t>
+  </si>
+  <si>
+    <t>25-07-2020</t>
+  </si>
+  <si>
+    <t>26-07-2020</t>
+  </si>
+  <si>
+    <t>27-07-2020</t>
+  </si>
+  <si>
+    <t>28-07-2020</t>
+  </si>
+  <si>
+    <t>29-07-2020</t>
+  </si>
+  <si>
+    <t>30-07-2020</t>
+  </si>
+  <si>
+    <t>31-07-2020</t>
+  </si>
+  <si>
+    <t>01-08-2020</t>
+  </si>
+  <si>
+    <t>02-08-2020</t>
+  </si>
+  <si>
+    <t>03-08-2020</t>
+  </si>
+  <si>
+    <t>04-08-2020</t>
+  </si>
+  <si>
+    <t>05-08-2020</t>
+  </si>
+  <si>
+    <t>06-08-2020</t>
+  </si>
+  <si>
+    <t>07-08-2020</t>
+  </si>
+  <si>
+    <t>08-08-2020</t>
+  </si>
+  <si>
+    <t>09-08-2020</t>
+  </si>
+  <si>
+    <t>10-08-2020</t>
+  </si>
+  <si>
+    <t>11-08-2020</t>
+  </si>
+  <si>
+    <t>12-08-2020</t>
+  </si>
+  <si>
+    <t>13-08-2020</t>
+  </si>
+  <si>
+    <t>14-08-2020</t>
+  </si>
+  <si>
+    <t>15-08-2020</t>
+  </si>
+  <si>
+    <t>16-08-2020</t>
+  </si>
+  <si>
+    <t>17-08-2020</t>
+  </si>
+  <si>
+    <t>18-08-2020</t>
+  </si>
+  <si>
+    <t>19-08-2020</t>
+  </si>
+  <si>
+    <t>20-08-2020</t>
+  </si>
+  <si>
+    <t>21-08-2020</t>
+  </si>
+  <si>
+    <t>24-08-2020</t>
+  </si>
+  <si>
+    <t>25-08-2020</t>
+  </si>
+  <si>
+    <t>26-08-2020</t>
+  </si>
+  <si>
+    <t>27-08-2020</t>
+  </si>
+  <si>
+    <t>28-08-2020</t>
+  </si>
+  <si>
+    <t>29-08-2020</t>
+  </si>
+  <si>
+    <t>30-08-2020</t>
+  </si>
+  <si>
+    <t>31-08-2020</t>
+  </si>
+  <si>
+    <t>01-09-2020</t>
+  </si>
+  <si>
+    <t>02-09-2020</t>
+  </si>
+  <si>
+    <t>03-09-2020</t>
+  </si>
+  <si>
+    <t>04-09-2020</t>
+  </si>
+  <si>
+    <t>05-09-2020</t>
+  </si>
+  <si>
+    <t>06-09-2020</t>
+  </si>
+  <si>
+    <t>07-09-2020</t>
+  </si>
+  <si>
+    <t>08-09-2020</t>
+  </si>
+  <si>
+    <t>09-09-2020</t>
+  </si>
+  <si>
+    <t>10-09-2020</t>
+  </si>
+  <si>
+    <t>11-09-2020</t>
+  </si>
+  <si>
+    <t>12-09-2020</t>
+  </si>
+  <si>
+    <t>13-09-2020</t>
+  </si>
+  <si>
+    <t>14-09-2020</t>
+  </si>
+  <si>
+    <t>15-09-2020</t>
+  </si>
+  <si>
+    <t>16-09-2020</t>
+  </si>
+  <si>
+    <t>17-09-2020</t>
+  </si>
+  <si>
+    <t>18-09-2020</t>
+  </si>
+  <si>
+    <t>19-09-2020</t>
+  </si>
+  <si>
+    <t>20-09-2020</t>
+  </si>
+  <si>
+    <t>21-09-2020</t>
+  </si>
+  <si>
+    <t>22-09-2020</t>
+  </si>
+  <si>
+    <t>23-09-2020</t>
+  </si>
+  <si>
+    <t>24-09-2020</t>
+  </si>
+  <si>
+    <t>25-09-2020</t>
+  </si>
+  <si>
+    <t>26-09-2020</t>
+  </si>
+  <si>
+    <t>27-09-2020</t>
+  </si>
+  <si>
+    <t>28-09-2020</t>
+  </si>
+  <si>
+    <t>29-09-2020</t>
+  </si>
+  <si>
+    <t>30-09-2020</t>
+  </si>
+  <si>
+    <t>01-10-2020</t>
+  </si>
+  <si>
+    <t>02-10-2020</t>
+  </si>
+  <si>
+    <t>03-10-2020</t>
+  </si>
+  <si>
+    <t>04-10-2020</t>
+  </si>
+  <si>
+    <t>05-10-2020</t>
+  </si>
+  <si>
+    <t>06-10-2020</t>
+  </si>
+  <si>
+    <t>07-10-2020</t>
+  </si>
+  <si>
+    <t>08-10-2020</t>
+  </si>
+  <si>
+    <t>09-10-2020</t>
+  </si>
+  <si>
+    <t>10-10-2020</t>
+  </si>
+  <si>
+    <t>11-10-2020</t>
+  </si>
+  <si>
+    <t>12-10-2020</t>
+  </si>
+  <si>
+    <t>13-10-2020</t>
+  </si>
+  <si>
+    <t>14-10-2020</t>
+  </si>
+  <si>
+    <t>15-10-2020</t>
+  </si>
+  <si>
+    <t>16-10-2020</t>
+  </si>
+  <si>
+    <t>17-10-2020</t>
+  </si>
+  <si>
+    <t>18-10-2020</t>
+  </si>
+  <si>
+    <t>19-10-2020</t>
+  </si>
+  <si>
+    <t>20-10-2020</t>
+  </si>
+  <si>
+    <t>21-10-2020</t>
+  </si>
+  <si>
+    <t>22-10-2020</t>
+  </si>
+  <si>
+    <t>23-10-2020</t>
+  </si>
+  <si>
+    <t>24-10-2020</t>
+  </si>
+  <si>
+    <t>25-10-2020</t>
+  </si>
+  <si>
+    <t>26-10-2020</t>
+  </si>
+  <si>
+    <t>27-10-2020</t>
+  </si>
+  <si>
+    <t>28-10-2020</t>
+  </si>
+  <si>
+    <t>29-10-2020</t>
+  </si>
+  <si>
+    <t>30-10-2020</t>
+  </si>
+  <si>
+    <t>31-10-2020</t>
+  </si>
+  <si>
+    <t>01-11-2020</t>
+  </si>
+  <si>
+    <t>02-11-2020</t>
+  </si>
+  <si>
+    <t>03-11-2020</t>
+  </si>
+  <si>
+    <t>04-11-2020</t>
+  </si>
+  <si>
+    <t>05-11-2020</t>
+  </si>
+  <si>
+    <t>06-11-2020</t>
+  </si>
+  <si>
+    <t>07-11-2020</t>
+  </si>
+  <si>
+    <t>08-11-2020</t>
+  </si>
+  <si>
+    <t>09-11-2020</t>
+  </si>
+  <si>
+    <t>10-11-2020</t>
+  </si>
+  <si>
+    <t>11-11-2020</t>
+  </si>
+  <si>
+    <t>12-11-2020</t>
+  </si>
+  <si>
+    <t>13-11-2020</t>
+  </si>
+  <si>
+    <t>14-11-2020</t>
+  </si>
+  <si>
+    <t>15-11-2020</t>
+  </si>
+  <si>
+    <t>16-11-2020</t>
+  </si>
+  <si>
+    <t>17-11-2020</t>
+  </si>
+  <si>
+    <t>18-11-2020</t>
+  </si>
+  <si>
+    <t>19-11-2020</t>
+  </si>
+  <si>
+    <t>20-11-2020</t>
+  </si>
+  <si>
+    <t>21-11-2020</t>
+  </si>
+  <si>
+    <t>22-11-2020</t>
+  </si>
+  <si>
+    <t>23-11-2020</t>
+  </si>
+  <si>
+    <t>24-11-2020</t>
+  </si>
+  <si>
+    <t>25-11-2020</t>
+  </si>
+  <si>
+    <t>26-11-2020</t>
+  </si>
+  <si>
+    <t>27-11-2020</t>
+  </si>
+  <si>
+    <t>28-11-2020</t>
+  </si>
+  <si>
+    <t>29-11-2020</t>
+  </si>
+  <si>
+    <t>30-11-2020</t>
+  </si>
+  <si>
+    <t>01-12-2020</t>
+  </si>
+  <si>
+    <t>02-12-2020</t>
+  </si>
+  <si>
+    <t>03-12-2020</t>
+  </si>
+  <si>
+    <t>04-12-2020</t>
+  </si>
+  <si>
+    <t>05-12-2020</t>
+  </si>
+  <si>
+    <t>06-12-2020</t>
+  </si>
+  <si>
+    <t>07-12-2020</t>
+  </si>
+  <si>
+    <t>08-12-2020</t>
+  </si>
+  <si>
+    <t>09-12-2020</t>
+  </si>
+  <si>
+    <t>10-12-2020</t>
+  </si>
+  <si>
+    <t>11-12-2020</t>
+  </si>
+  <si>
+    <t>12-12-2020</t>
+  </si>
+  <si>
+    <t>13-12-2020</t>
+  </si>
+  <si>
+    <t>14-12-2020</t>
+  </si>
+  <si>
+    <t>15-12-2020</t>
+  </si>
+  <si>
+    <t>16-12-2020</t>
+  </si>
+  <si>
+    <t>17-12-2020</t>
+  </si>
+  <si>
+    <t>18-12-2020</t>
+  </si>
+  <si>
+    <t>19-12-2020</t>
+  </si>
+  <si>
+    <t>20-12-2020</t>
+  </si>
+  <si>
+    <t>21-12-2020</t>
+  </si>
+  <si>
+    <t>22-12-2020</t>
+  </si>
+  <si>
+    <t>23-12-2020</t>
+  </si>
+  <si>
+    <t>24-12-2020</t>
+  </si>
+  <si>
+    <t>25-12-2020</t>
+  </si>
+  <si>
+    <t>26-12-2020</t>
+  </si>
+  <si>
+    <t>27-12-2020</t>
+  </si>
+  <si>
+    <t>28-12-2020</t>
+  </si>
+  <si>
+    <t>29-12-2020</t>
+  </si>
+  <si>
+    <t>30-12-2020</t>
+  </si>
+  <si>
+    <t>31-12-2020</t>
   </si>
 </sst>
 </file>
@@ -1217,64 +1217,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G2" t="s">
-        <v>281</v>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1287,14 +1287,14 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1141</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1307,14 +1307,14 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>1141</v>
+        <v>1419</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1327,14 +1327,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>24</v>
       </c>
       <c r="C6">
-        <v>1419</v>
+        <v>1538</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1347,14 +1347,14 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
       <c r="C7">
-        <v>1538</v>
+        <v>2106</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1367,34 +1367,34 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>2244</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>2106</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>76</v>
-      </c>
       <c r="C9">
-        <v>2244</v>
+        <v>2101</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1407,14 +1407,14 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C10">
-        <v>2101</v>
+        <v>2265</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1427,14 +1427,14 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C11">
-        <v>2265</v>
+        <v>3137</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1447,14 +1447,14 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12">
-        <v>3137</v>
+        <v>3549</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1467,8 +1467,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
         <v>95</v>
@@ -1487,8 +1487,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>19</v>
       </c>
       <c r="B14">
         <v>95</v>
@@ -1507,8 +1507,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
         <v>95</v>
@@ -1527,14 +1527,14 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16">
-        <v>3549</v>
+        <v>3602</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1547,14 +1547,14 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
       <c r="B17">
         <v>96</v>
       </c>
       <c r="C17">
-        <v>3602</v>
+        <v>3580</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1567,14 +1567,14 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18">
-        <v>3580</v>
+        <v>3563</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1587,48 +1587,48 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>24</v>
       </c>
       <c r="B19">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>3518</v>
+      </c>
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>2501</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
         <v>95</v>
       </c>
-      <c r="C19">
-        <v>3563</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>94</v>
-      </c>
       <c r="C20">
-        <v>3518</v>
+        <v>3547</v>
       </c>
       <c r="D20">
-        <v>62</v>
+        <v>583</v>
       </c>
       <c r="E20">
-        <v>2501</v>
+        <v>2693</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>26</v>
       </c>
       <c r="B21">
         <v>95</v>
@@ -1647,8 +1647,8 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>27</v>
       </c>
       <c r="B22">
         <v>95</v>
@@ -1667,108 +1667,108 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>28</v>
       </c>
       <c r="B23">
         <v>95</v>
       </c>
       <c r="C23">
-        <v>3547</v>
+        <v>3559</v>
       </c>
       <c r="D23">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E23">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24">
-        <v>3559</v>
+        <v>3531</v>
       </c>
       <c r="D24">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E24">
-        <v>2703</v>
+        <v>2681</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>30</v>
       </c>
       <c r="B25">
         <v>94</v>
       </c>
       <c r="C25">
-        <v>3531</v>
+        <v>3507</v>
       </c>
       <c r="D25">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E25">
-        <v>2681</v>
+        <v>2663</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
+      <c r="A26" t="s">
+        <v>31</v>
       </c>
       <c r="B26">
         <v>94</v>
       </c>
       <c r="C26">
-        <v>3507</v>
+        <v>3530</v>
       </c>
       <c r="D26">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E26">
-        <v>2663</v>
+        <v>2680</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>32</v>
       </c>
       <c r="B27">
         <v>94</v>
       </c>
       <c r="C27">
-        <v>3530</v>
+        <v>3520</v>
       </c>
       <c r="D27">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E27">
-        <v>2680</v>
+        <v>2673</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>33</v>
       </c>
       <c r="B28">
         <v>94</v>
@@ -1787,8 +1787,8 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>34</v>
       </c>
       <c r="B29">
         <v>94</v>
@@ -1807,88 +1807,88 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>35</v>
       </c>
       <c r="B30">
         <v>94</v>
       </c>
       <c r="C30">
-        <v>3520</v>
+        <v>3516</v>
       </c>
       <c r="D30">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E30">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
       <c r="B31">
         <v>94</v>
       </c>
       <c r="C31">
-        <v>3516</v>
+        <v>3529</v>
       </c>
       <c r="D31">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E31">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32">
-        <v>3529</v>
+        <v>3555</v>
       </c>
       <c r="D32">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E32">
-        <v>2680</v>
+        <v>2700</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>931</v>
       </c>
       <c r="C33">
-        <v>3555</v>
+        <v>3584</v>
       </c>
       <c r="D33">
-        <v>584</v>
+        <v>4493</v>
       </c>
       <c r="E33">
-        <v>2700</v>
+        <v>2912</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34">
         <v>931</v>
@@ -1907,8 +1907,8 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+      <c r="A35" t="s">
+        <v>40</v>
       </c>
       <c r="B35">
         <v>931</v>
@@ -1927,8 +1927,8 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
+      <c r="A36" t="s">
+        <v>41</v>
       </c>
       <c r="B36">
         <v>931</v>
@@ -1947,108 +1947,108 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+      <c r="A37" t="s">
+        <v>42</v>
       </c>
       <c r="B37">
+        <v>929</v>
+      </c>
+      <c r="C37">
+        <v>3578</v>
+      </c>
+      <c r="D37">
+        <v>4486</v>
+      </c>
+      <c r="E37">
+        <v>2908</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>928</v>
+      </c>
+      <c r="C38">
+        <v>3575</v>
+      </c>
+      <c r="D38">
+        <v>4482</v>
+      </c>
+      <c r="E38">
+        <v>2905</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>935</v>
+      </c>
+      <c r="C39">
+        <v>3600</v>
+      </c>
+      <c r="D39">
+        <v>4514</v>
+      </c>
+      <c r="E39">
+        <v>2925</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>928</v>
+      </c>
+      <c r="C40">
+        <v>3572</v>
+      </c>
+      <c r="D40">
+        <v>6305</v>
+      </c>
+      <c r="E40">
+        <v>2901</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
         <v>931</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <v>3584</v>
       </c>
-      <c r="D37">
-        <v>4493</v>
-      </c>
-      <c r="E37">
-        <v>2912</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>929</v>
-      </c>
-      <c r="C38">
-        <v>3578</v>
-      </c>
-      <c r="D38">
-        <v>4486</v>
-      </c>
-      <c r="E38">
-        <v>2908</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>928</v>
-      </c>
-      <c r="C39">
-        <v>3575</v>
-      </c>
-      <c r="D39">
-        <v>4482</v>
-      </c>
-      <c r="E39">
-        <v>2905</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>935</v>
-      </c>
-      <c r="C40">
-        <v>3600</v>
-      </c>
-      <c r="D40">
-        <v>4514</v>
-      </c>
-      <c r="E40">
-        <v>2925</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>928</v>
-      </c>
-      <c r="C41">
-        <v>3572</v>
-      </c>
       <c r="D41">
-        <v>6305</v>
+        <v>6326</v>
       </c>
       <c r="E41">
-        <v>2901</v>
+        <v>2911</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
+      <c r="A42" t="s">
+        <v>47</v>
       </c>
       <c r="B42">
         <v>931</v>
@@ -2067,8 +2067,8 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
+      <c r="A43" t="s">
+        <v>48</v>
       </c>
       <c r="B43">
         <v>931</v>
@@ -2087,108 +2087,108 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
+      <c r="A44" t="s">
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="C44">
-        <v>3584</v>
+        <v>3622</v>
       </c>
       <c r="D44">
-        <v>6326</v>
+        <v>6392</v>
       </c>
       <c r="E44">
-        <v>2911</v>
+        <v>2941</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
+      <c r="A45" t="s">
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C45">
-        <v>3622</v>
+        <v>3629</v>
       </c>
       <c r="D45">
-        <v>6392</v>
+        <v>6404</v>
       </c>
       <c r="E45">
-        <v>2941</v>
+        <v>2947</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
+      <c r="A46" t="s">
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C46">
-        <v>3629</v>
+        <v>3647</v>
       </c>
       <c r="D46">
-        <v>6404</v>
+        <v>7238</v>
       </c>
       <c r="E46">
-        <v>2947</v>
+        <v>2962</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
+      <c r="A47" t="s">
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C47">
-        <v>3647</v>
+        <v>3654</v>
       </c>
       <c r="D47">
-        <v>7238</v>
+        <v>8219</v>
       </c>
       <c r="E47">
-        <v>2962</v>
+        <v>3203</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
+      <c r="A48" t="s">
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C48">
-        <v>3654</v>
+        <v>3642</v>
       </c>
       <c r="D48">
-        <v>8219</v>
+        <v>8194</v>
       </c>
       <c r="E48">
-        <v>3203</v>
+        <v>3193</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
+      <c r="A49" t="s">
+        <v>54</v>
       </c>
       <c r="B49">
         <v>946</v>
@@ -2207,8 +2207,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
+      <c r="A50" t="s">
+        <v>55</v>
       </c>
       <c r="B50">
         <v>946</v>
@@ -2227,68 +2227,68 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
+      <c r="A51" t="s">
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C51">
-        <v>3642</v>
+        <v>3638</v>
       </c>
       <c r="D51">
-        <v>8194</v>
+        <v>8185</v>
       </c>
       <c r="E51">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
+      <c r="A52" t="s">
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="C52">
-        <v>3638</v>
+        <v>3653</v>
       </c>
       <c r="D52">
-        <v>8185</v>
+        <v>8217</v>
       </c>
       <c r="E52">
-        <v>3189</v>
+        <v>3202</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
+      <c r="A53" t="s">
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C53">
-        <v>3653</v>
+        <v>3660</v>
       </c>
       <c r="D53">
-        <v>8217</v>
+        <v>8232</v>
       </c>
       <c r="E53">
-        <v>3202</v>
+        <v>3208</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
+      <c r="A54" t="s">
+        <v>59</v>
       </c>
       <c r="B54">
         <v>951</v>
@@ -2297,38 +2297,38 @@
         <v>3660</v>
       </c>
       <c r="D54">
-        <v>8232</v>
+        <v>10901</v>
       </c>
       <c r="E54">
-        <v>3208</v>
+        <v>3217</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
+      <c r="A55" t="s">
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="C55">
-        <v>3660</v>
+        <v>3718</v>
       </c>
       <c r="D55">
-        <v>10901</v>
+        <v>11076</v>
       </c>
       <c r="E55">
-        <v>3217</v>
+        <v>3269</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
+      <c r="A56" t="s">
+        <v>61</v>
       </c>
       <c r="B56">
         <v>966</v>
@@ -2347,8 +2347,8 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
+      <c r="A57" t="s">
+        <v>62</v>
       </c>
       <c r="B57">
         <v>966</v>
@@ -2367,108 +2367,108 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
+      <c r="A58" t="s">
+        <v>63</v>
       </c>
       <c r="B58">
         <v>966</v>
       </c>
       <c r="C58">
-        <v>3718</v>
+        <v>3720</v>
       </c>
       <c r="D58">
-        <v>11076</v>
+        <v>11081</v>
       </c>
       <c r="E58">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
+      <c r="A59" t="s">
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C59">
-        <v>3720</v>
+        <v>3729</v>
       </c>
       <c r="D59">
-        <v>11081</v>
+        <v>11109</v>
       </c>
       <c r="E59">
-        <v>3271</v>
+        <v>3279</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
+      <c r="A60" t="s">
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C60">
-        <v>3729</v>
+        <v>3737</v>
       </c>
       <c r="D60">
-        <v>11109</v>
+        <v>11132</v>
       </c>
       <c r="E60">
-        <v>3279</v>
+        <v>3286</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
+      <c r="A61" t="s">
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="C61">
-        <v>3737</v>
+        <v>3671</v>
       </c>
       <c r="D61">
-        <v>11132</v>
+        <v>10936</v>
       </c>
       <c r="E61">
-        <v>3286</v>
+        <v>3228</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
+      <c r="A62" t="s">
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>954</v>
+        <v>977</v>
       </c>
       <c r="C62">
-        <v>3671</v>
+        <v>3690</v>
       </c>
       <c r="D62">
-        <v>10936</v>
+        <v>11349</v>
       </c>
       <c r="E62">
-        <v>3228</v>
+        <v>3243</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
+      <c r="A63" t="s">
+        <v>68</v>
       </c>
       <c r="B63">
         <v>977</v>
@@ -2487,8 +2487,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
+      <c r="A64" t="s">
+        <v>69</v>
       </c>
       <c r="B64">
         <v>977</v>
@@ -2507,108 +2507,108 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
+      <c r="A65" t="s">
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="C65">
-        <v>3690</v>
+        <v>3720</v>
       </c>
       <c r="D65">
-        <v>11349</v>
+        <v>11439</v>
       </c>
       <c r="E65">
-        <v>3243</v>
+        <v>3268</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
+      <c r="A66" t="s">
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="C66">
-        <v>3720</v>
+        <v>3766</v>
       </c>
       <c r="D66">
-        <v>11439</v>
+        <v>11581</v>
       </c>
       <c r="E66">
-        <v>3268</v>
+        <v>3309</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
+      <c r="A67" t="s">
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="C67">
-        <v>3766</v>
+        <v>3831</v>
       </c>
       <c r="D67">
-        <v>11581</v>
+        <v>11783</v>
       </c>
       <c r="E67">
-        <v>3309</v>
+        <v>3366</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
+      <c r="A68" t="s">
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>1015</v>
+        <v>1038</v>
       </c>
       <c r="C68">
-        <v>3831</v>
+        <v>3895</v>
       </c>
       <c r="D68">
-        <v>11783</v>
+        <v>12149</v>
       </c>
       <c r="E68">
-        <v>3366</v>
+        <v>3416</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
+      <c r="A69" t="s">
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="C69">
-        <v>3895</v>
+        <v>3863</v>
       </c>
       <c r="D69">
-        <v>12149</v>
+        <v>12048</v>
       </c>
       <c r="E69">
-        <v>3416</v>
+        <v>3388</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
+      <c r="A70" t="s">
+        <v>75</v>
       </c>
       <c r="B70">
         <v>1029</v>
@@ -2627,8 +2627,8 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
+      <c r="A71" t="s">
+        <v>76</v>
       </c>
       <c r="B71">
         <v>1029</v>
@@ -2647,108 +2647,108 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
+      <c r="A72" t="s">
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>1029</v>
+        <v>1043</v>
       </c>
       <c r="C72">
-        <v>3863</v>
+        <v>3916</v>
       </c>
       <c r="D72">
-        <v>12048</v>
+        <v>12215</v>
       </c>
       <c r="E72">
-        <v>3388</v>
+        <v>3435</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
+      <c r="A73" t="s">
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C73">
-        <v>3916</v>
+        <v>3894</v>
       </c>
       <c r="D73">
-        <v>12215</v>
+        <v>12147</v>
       </c>
       <c r="E73">
-        <v>3435</v>
+        <v>3416</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
+      <c r="A74" t="s">
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C74">
-        <v>3894</v>
+        <v>3881</v>
       </c>
       <c r="D74">
-        <v>12147</v>
+        <v>12105</v>
       </c>
       <c r="E74">
-        <v>3416</v>
+        <v>3404</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
+      <c r="A75" t="s">
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="C75">
-        <v>3881</v>
+        <v>3901</v>
       </c>
       <c r="D75">
-        <v>12105</v>
+        <v>12211</v>
       </c>
       <c r="E75">
-        <v>3404</v>
+        <v>3431</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
+      <c r="A76" t="s">
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="C76">
-        <v>3901</v>
+        <v>3818</v>
       </c>
       <c r="D76">
-        <v>12211</v>
+        <v>11951</v>
       </c>
       <c r="E76">
-        <v>3431</v>
+        <v>3358</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
+      <c r="A77" t="s">
+        <v>82</v>
       </c>
       <c r="B77">
         <v>1017</v>
@@ -2767,8 +2767,8 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
+      <c r="A78" t="s">
+        <v>83</v>
       </c>
       <c r="B78">
         <v>1017</v>
@@ -2787,108 +2787,108 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
+      <c r="A79" t="s">
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C79">
-        <v>3818</v>
+        <v>3789</v>
       </c>
       <c r="D79">
-        <v>11951</v>
+        <v>11859</v>
       </c>
       <c r="E79">
-        <v>3358</v>
+        <v>3332</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>78</v>
+      <c r="A80" t="s">
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C80">
-        <v>3789</v>
+        <v>3759</v>
       </c>
       <c r="D80">
-        <v>11859</v>
+        <v>11768</v>
       </c>
       <c r="E80">
-        <v>3332</v>
+        <v>3306</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
+      <c r="A81" t="s">
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>1001</v>
+        <v>1024</v>
       </c>
       <c r="C81">
-        <v>3759</v>
+        <v>3845</v>
       </c>
       <c r="D81">
-        <v>11768</v>
+        <v>12036</v>
       </c>
       <c r="E81">
-        <v>3306</v>
+        <v>3381</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
+      <c r="A82" t="s">
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="C82">
-        <v>3845</v>
+        <v>3752</v>
       </c>
       <c r="D82">
-        <v>12036</v>
+        <v>12123</v>
       </c>
       <c r="E82">
-        <v>3381</v>
+        <v>3299</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>81</v>
+      <c r="A83" t="s">
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="C83">
-        <v>3752</v>
+        <v>3689</v>
       </c>
       <c r="D83">
-        <v>12123</v>
+        <v>11919</v>
       </c>
       <c r="E83">
-        <v>3299</v>
+        <v>3244</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>82</v>
+      <c r="A84" t="s">
+        <v>89</v>
       </c>
       <c r="B84">
         <v>983</v>
@@ -2907,8 +2907,8 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>83</v>
+      <c r="A85" t="s">
+        <v>90</v>
       </c>
       <c r="B85">
         <v>983</v>
@@ -2927,128 +2927,128 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>84</v>
+      <c r="A86" t="s">
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C86">
-        <v>3689</v>
+        <v>3665</v>
       </c>
       <c r="D86">
-        <v>11919</v>
+        <v>11844</v>
       </c>
       <c r="E86">
-        <v>3244</v>
+        <v>3223</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>85</v>
+      <c r="A87" t="s">
+        <v>92</v>
       </c>
       <c r="B87">
+        <v>978</v>
+      </c>
+      <c r="C87">
+        <v>3671</v>
+      </c>
+      <c r="D87">
+        <v>11863</v>
+      </c>
+      <c r="E87">
+        <v>3228</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
         <v>976</v>
       </c>
-      <c r="C87">
-        <v>3665</v>
-      </c>
-      <c r="D87">
-        <v>11844</v>
-      </c>
-      <c r="E87">
-        <v>3223</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>978</v>
-      </c>
       <c r="C88">
-        <v>3671</v>
+        <v>3663</v>
       </c>
       <c r="D88">
-        <v>11863</v>
+        <v>11836</v>
       </c>
       <c r="E88">
-        <v>3228</v>
+        <v>3221</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
-        <v>87</v>
+      <c r="A89" t="s">
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C89">
-        <v>3663</v>
+        <v>3650</v>
       </c>
       <c r="D89">
-        <v>11836</v>
+        <v>13838</v>
       </c>
       <c r="E89">
-        <v>3221</v>
+        <v>3301</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
-        <v>88</v>
+      <c r="A90" t="s">
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="C90">
-        <v>3650</v>
+        <v>3684</v>
       </c>
       <c r="D90">
-        <v>13838</v>
+        <v>13964</v>
       </c>
       <c r="E90">
-        <v>3301</v>
+        <v>3332</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>89</v>
+      <c r="A91" t="s">
+        <v>96</v>
       </c>
       <c r="B91">
         <v>981</v>
       </c>
       <c r="C91">
-        <v>3684</v>
+        <v>3689</v>
       </c>
       <c r="D91">
         <v>13964</v>
       </c>
       <c r="E91">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
-        <v>90</v>
+      <c r="A92" t="s">
+        <v>97</v>
       </c>
       <c r="B92">
         <v>981</v>
@@ -3067,8 +3067,8 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>91</v>
+      <c r="A93" t="s">
+        <v>98</v>
       </c>
       <c r="B93">
         <v>981</v>
@@ -3087,88 +3087,88 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
+      <c r="A94" t="s">
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C94">
-        <v>3689</v>
+        <v>3675</v>
       </c>
       <c r="D94">
-        <v>13964</v>
+        <v>13911</v>
       </c>
       <c r="E94">
-        <v>3334</v>
+        <v>3321</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>93</v>
+      <c r="A95" t="s">
+        <v>100</v>
       </c>
       <c r="B95">
+        <v>972</v>
+      </c>
+      <c r="C95">
+        <v>3653</v>
+      </c>
+      <c r="D95">
+        <v>13829</v>
+      </c>
+      <c r="E95">
+        <v>3301</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
         <v>978</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>3675</v>
       </c>
-      <c r="D95">
-        <v>13911</v>
-      </c>
-      <c r="E95">
+      <c r="D96">
+        <v>14068</v>
+      </c>
+      <c r="E96">
         <v>3321</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>972</v>
-      </c>
-      <c r="C96">
-        <v>3653</v>
-      </c>
-      <c r="D96">
-        <v>13829</v>
-      </c>
-      <c r="E96">
-        <v>3301</v>
-      </c>
       <c r="F96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
-        <v>95</v>
+      <c r="A97" t="s">
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>978</v>
+        <v>993</v>
       </c>
       <c r="C97">
-        <v>3675</v>
+        <v>3732</v>
       </c>
       <c r="D97">
-        <v>14068</v>
+        <v>14283</v>
       </c>
       <c r="E97">
-        <v>3321</v>
+        <v>3372</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
+      <c r="A98" t="s">
+        <v>103</v>
       </c>
       <c r="B98">
         <v>993</v>
@@ -3187,8 +3187,8 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>97</v>
+      <c r="A99" t="s">
+        <v>104</v>
       </c>
       <c r="B99">
         <v>993</v>
@@ -3207,108 +3207,108 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>98</v>
+      <c r="A100" t="s">
+        <v>105</v>
       </c>
       <c r="B100">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C100">
-        <v>3732</v>
+        <v>3743</v>
       </c>
       <c r="D100">
-        <v>14283</v>
+        <v>14328</v>
       </c>
       <c r="E100">
-        <v>3372</v>
+        <v>3383</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
-        <v>99</v>
+      <c r="A101" t="s">
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C101">
-        <v>3743</v>
+        <v>3756</v>
       </c>
       <c r="D101">
-        <v>14328</v>
+        <v>14376</v>
       </c>
       <c r="E101">
-        <v>3383</v>
+        <v>3394</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>100</v>
+      <c r="A102" t="s">
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C102">
-        <v>3756</v>
+        <v>3779</v>
       </c>
       <c r="D102">
-        <v>14376</v>
+        <v>14465</v>
       </c>
       <c r="E102">
-        <v>3394</v>
+        <v>3415</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>101</v>
+      <c r="A103" t="s">
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>1005</v>
+        <v>1102</v>
       </c>
       <c r="C103">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="D103">
-        <v>14465</v>
+        <v>14708</v>
       </c>
       <c r="E103">
-        <v>3415</v>
+        <v>3449</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
-        <v>102</v>
+      <c r="A104" t="s">
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="C104">
-        <v>3729</v>
+        <v>3750</v>
       </c>
       <c r="D104">
-        <v>14708</v>
+        <v>14792</v>
       </c>
       <c r="E104">
-        <v>3449</v>
+        <v>3468</v>
       </c>
       <c r="F104">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="1" t="s">
-        <v>103</v>
+      <c r="A105" t="s">
+        <v>110</v>
       </c>
       <c r="B105">
         <v>1108</v>
@@ -3327,8 +3327,8 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
-        <v>104</v>
+      <c r="A106" t="s">
+        <v>111</v>
       </c>
       <c r="B106">
         <v>1108</v>
@@ -3347,108 +3347,108 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>105</v>
+      <c r="A107" t="s">
+        <v>112</v>
       </c>
       <c r="B107">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="C107">
-        <v>3750</v>
+        <v>3707</v>
       </c>
       <c r="D107">
-        <v>14792</v>
+        <v>14622</v>
       </c>
       <c r="E107">
-        <v>3468</v>
+        <v>3428</v>
       </c>
       <c r="F107">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>106</v>
+      <c r="A108" t="s">
+        <v>113</v>
       </c>
       <c r="B108">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="C108">
-        <v>3707</v>
+        <v>3719</v>
       </c>
       <c r="D108">
-        <v>14622</v>
+        <v>14670</v>
       </c>
       <c r="E108">
-        <v>3428</v>
+        <v>3440</v>
       </c>
       <c r="F108">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>107</v>
+      <c r="A109" t="s">
+        <v>114</v>
       </c>
       <c r="B109">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C109">
-        <v>3719</v>
+        <v>3721</v>
       </c>
       <c r="D109">
-        <v>14670</v>
+        <v>14677</v>
       </c>
       <c r="E109">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="F109">
         <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
-        <v>108</v>
+      <c r="A110" t="s">
+        <v>115</v>
       </c>
       <c r="B110">
         <v>1100</v>
       </c>
       <c r="C110">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="D110">
-        <v>14677</v>
+        <v>14722</v>
       </c>
       <c r="E110">
-        <v>3441</v>
+        <v>3459</v>
       </c>
       <c r="F110">
         <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>109</v>
+      <c r="A111" t="s">
+        <v>116</v>
       </c>
       <c r="B111">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="C111">
-        <v>3722</v>
+        <v>3724</v>
       </c>
       <c r="D111">
-        <v>14722</v>
+        <v>14729</v>
       </c>
       <c r="E111">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="F111">
         <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>110</v>
+      <c r="A112" t="s">
+        <v>117</v>
       </c>
       <c r="B112">
         <v>1106</v>
@@ -3467,8 +3467,8 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>111</v>
+      <c r="A113" t="s">
+        <v>118</v>
       </c>
       <c r="B113">
         <v>1106</v>
@@ -3487,108 +3487,108 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>112</v>
+      <c r="A114" t="s">
+        <v>119</v>
       </c>
       <c r="B114">
         <v>1106</v>
       </c>
       <c r="C114">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="D114">
-        <v>14729</v>
+        <v>14733</v>
       </c>
       <c r="E114">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="F114">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>113</v>
+      <c r="A115" t="s">
+        <v>120</v>
       </c>
       <c r="B115">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C115">
-        <v>3725</v>
+        <v>3731</v>
       </c>
       <c r="D115">
-        <v>14733</v>
+        <v>14756</v>
       </c>
       <c r="E115">
-        <v>3462</v>
+        <v>3467</v>
       </c>
       <c r="F115">
         <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>114</v>
+      <c r="A116" t="s">
+        <v>121</v>
       </c>
       <c r="B116">
-        <v>1108</v>
+        <v>1120</v>
       </c>
       <c r="C116">
-        <v>3731</v>
+        <v>3771</v>
       </c>
       <c r="D116">
-        <v>14756</v>
+        <v>14915</v>
       </c>
       <c r="E116">
-        <v>3467</v>
+        <v>3505</v>
       </c>
       <c r="F116">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>115</v>
+      <c r="A117" t="s">
+        <v>122</v>
       </c>
       <c r="B117">
-        <v>1120</v>
+        <v>1142</v>
       </c>
       <c r="C117">
-        <v>3771</v>
+        <v>3813</v>
       </c>
       <c r="D117">
-        <v>14915</v>
+        <v>15130</v>
       </c>
       <c r="E117">
-        <v>3505</v>
+        <v>3544</v>
       </c>
       <c r="F117">
-        <v>321</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>116</v>
+      <c r="A118" t="s">
+        <v>123</v>
       </c>
       <c r="B118">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="C118">
-        <v>3813</v>
+        <v>3822</v>
       </c>
       <c r="D118">
-        <v>15130</v>
+        <v>15168</v>
       </c>
       <c r="E118">
-        <v>3544</v>
+        <v>3553</v>
       </c>
       <c r="F118">
-        <v>1533</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>117</v>
+      <c r="A119" t="s">
+        <v>124</v>
       </c>
       <c r="B119">
         <v>1145</v>
@@ -3607,8 +3607,8 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>118</v>
+      <c r="A120" t="s">
+        <v>125</v>
       </c>
       <c r="B120">
         <v>1145</v>
@@ -3627,108 +3627,108 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="1" t="s">
-        <v>119</v>
+      <c r="A121" t="s">
+        <v>126</v>
       </c>
       <c r="B121">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C121">
-        <v>3822</v>
+        <v>3815</v>
       </c>
       <c r="D121">
-        <v>15168</v>
+        <v>15139</v>
       </c>
       <c r="E121">
-        <v>3553</v>
+        <v>3546</v>
       </c>
       <c r="F121">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="1" t="s">
-        <v>120</v>
+      <c r="A122" t="s">
+        <v>127</v>
       </c>
       <c r="B122">
         <v>1143</v>
       </c>
       <c r="C122">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="D122">
-        <v>15139</v>
+        <v>15135</v>
       </c>
       <c r="E122">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="F122">
         <v>1534</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="1" t="s">
-        <v>121</v>
+      <c r="A123" t="s">
+        <v>128</v>
       </c>
       <c r="B123">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C123">
-        <v>3814</v>
+        <v>3819</v>
       </c>
       <c r="D123">
-        <v>15135</v>
+        <v>15155</v>
       </c>
       <c r="E123">
-        <v>3545</v>
+        <v>3550</v>
       </c>
       <c r="F123">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>122</v>
+      <c r="A124" t="s">
+        <v>129</v>
       </c>
       <c r="B124">
-        <v>1144</v>
+        <v>1157</v>
       </c>
       <c r="C124">
-        <v>3819</v>
+        <v>3863</v>
       </c>
       <c r="D124">
-        <v>15155</v>
+        <v>15327</v>
       </c>
       <c r="E124">
-        <v>3550</v>
+        <v>3590</v>
       </c>
       <c r="F124">
-        <v>1536</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>123</v>
+      <c r="A125" t="s">
+        <v>130</v>
       </c>
       <c r="B125">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="C125">
-        <v>3863</v>
+        <v>3887</v>
       </c>
       <c r="D125">
-        <v>15327</v>
+        <v>15423</v>
       </c>
       <c r="E125">
-        <v>3590</v>
+        <v>3613</v>
       </c>
       <c r="F125">
-        <v>3766</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="1" t="s">
-        <v>124</v>
+      <c r="A126" t="s">
+        <v>131</v>
       </c>
       <c r="B126">
         <v>1165</v>
@@ -3747,8 +3747,8 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="1" t="s">
-        <v>125</v>
+      <c r="A127" t="s">
+        <v>132</v>
       </c>
       <c r="B127">
         <v>1165</v>
@@ -3767,108 +3767,108 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>126</v>
+      <c r="A128" t="s">
+        <v>133</v>
       </c>
       <c r="B128">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C128">
-        <v>3887</v>
+        <v>3873</v>
       </c>
       <c r="D128">
-        <v>15423</v>
+        <v>15370</v>
       </c>
       <c r="E128">
-        <v>3613</v>
+        <v>3600</v>
       </c>
       <c r="F128">
-        <v>3789</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
-        <v>127</v>
+      <c r="A129" t="s">
+        <v>134</v>
       </c>
       <c r="B129">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="C129">
-        <v>3873</v>
+        <v>3852</v>
       </c>
       <c r="D129">
-        <v>15370</v>
+        <v>15284</v>
       </c>
       <c r="E129">
-        <v>3600</v>
+        <v>3580</v>
       </c>
       <c r="F129">
-        <v>3776</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>128</v>
+      <c r="A130" t="s">
+        <v>135</v>
       </c>
       <c r="B130">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="C130">
-        <v>3852</v>
+        <v>3818</v>
       </c>
       <c r="D130">
-        <v>15284</v>
+        <v>15152</v>
       </c>
       <c r="E130">
-        <v>3580</v>
+        <v>3549</v>
       </c>
       <c r="F130">
-        <v>3755</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
-        <v>129</v>
+      <c r="A131" t="s">
+        <v>136</v>
       </c>
       <c r="B131">
-        <v>1144</v>
+        <v>1212</v>
       </c>
       <c r="C131">
-        <v>3818</v>
+        <v>3706</v>
       </c>
       <c r="D131">
-        <v>15152</v>
+        <v>15018</v>
       </c>
       <c r="E131">
-        <v>3549</v>
+        <v>3518</v>
       </c>
       <c r="F131">
-        <v>3722</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
-        <v>130</v>
+      <c r="A132" t="s">
+        <v>137</v>
       </c>
       <c r="B132">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C132">
-        <v>3706</v>
+        <v>3695</v>
       </c>
       <c r="D132">
-        <v>15018</v>
+        <v>14972</v>
       </c>
       <c r="E132">
-        <v>3518</v>
+        <v>3507</v>
       </c>
       <c r="F132">
-        <v>3710</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>131</v>
+      <c r="A133" t="s">
+        <v>138</v>
       </c>
       <c r="B133">
         <v>1208</v>
@@ -3887,8 +3887,8 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>132</v>
+      <c r="A134" t="s">
+        <v>139</v>
       </c>
       <c r="B134">
         <v>1208</v>
@@ -3907,108 +3907,108 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
-        <v>133</v>
+      <c r="A135" t="s">
+        <v>140</v>
       </c>
       <c r="B135">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="C135">
-        <v>3695</v>
+        <v>3662</v>
       </c>
       <c r="D135">
-        <v>14972</v>
+        <v>14837</v>
       </c>
       <c r="E135">
-        <v>3507</v>
+        <v>3475</v>
       </c>
       <c r="F135">
-        <v>3698</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>134</v>
+      <c r="A136" t="s">
+        <v>141</v>
       </c>
       <c r="B136">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="C136">
-        <v>3662</v>
+        <v>3605</v>
       </c>
       <c r="D136">
-        <v>14837</v>
+        <v>14608</v>
       </c>
       <c r="E136">
-        <v>3475</v>
+        <v>3421</v>
       </c>
       <c r="F136">
-        <v>3665</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="1" t="s">
-        <v>135</v>
+      <c r="A137" t="s">
+        <v>142</v>
       </c>
       <c r="B137">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="C137">
-        <v>3605</v>
+        <v>3619</v>
       </c>
       <c r="D137">
-        <v>14608</v>
+        <v>14662</v>
       </c>
       <c r="E137">
-        <v>3421</v>
+        <v>3434</v>
       </c>
       <c r="F137">
-        <v>3608</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="1" t="s">
-        <v>136</v>
+      <c r="A138" t="s">
+        <v>143</v>
       </c>
       <c r="B138">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C138">
-        <v>3619</v>
+        <v>3623</v>
       </c>
       <c r="D138">
-        <v>14662</v>
+        <v>14679</v>
       </c>
       <c r="E138">
-        <v>3434</v>
+        <v>3438</v>
       </c>
       <c r="F138">
-        <v>3622</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
-        <v>137</v>
+      <c r="A139" t="s">
+        <v>144</v>
       </c>
       <c r="B139">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C139">
+        <v>3620</v>
+      </c>
+      <c r="D139">
+        <v>14668</v>
+      </c>
+      <c r="E139">
+        <v>3436</v>
+      </c>
+      <c r="F139">
         <v>3623</v>
       </c>
-      <c r="D139">
-        <v>14679</v>
-      </c>
-      <c r="E139">
-        <v>3438</v>
-      </c>
-      <c r="F139">
-        <v>3626</v>
-      </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
-        <v>138</v>
+      <c r="A140" t="s">
+        <v>145</v>
       </c>
       <c r="B140">
         <v>1184</v>
@@ -4027,8 +4027,8 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="1" t="s">
-        <v>139</v>
+      <c r="A141" t="s">
+        <v>146</v>
       </c>
       <c r="B141">
         <v>1184</v>
@@ -4047,208 +4047,208 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="1" t="s">
-        <v>140</v>
+      <c r="A142" t="s">
+        <v>147</v>
       </c>
       <c r="B142">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C142">
-        <v>3620</v>
+        <v>3604</v>
       </c>
       <c r="D142">
-        <v>14668</v>
+        <v>14605</v>
       </c>
       <c r="E142">
-        <v>3436</v>
+        <v>3421</v>
       </c>
       <c r="F142">
-        <v>3623</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
-        <v>141</v>
+      <c r="A143" t="s">
+        <v>148</v>
       </c>
       <c r="B143">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="C143">
-        <v>3604</v>
+        <v>3575</v>
       </c>
       <c r="D143">
-        <v>14605</v>
+        <v>14484</v>
       </c>
       <c r="E143">
-        <v>3421</v>
+        <v>3392</v>
       </c>
       <c r="F143">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
+        <v>1180</v>
+      </c>
+      <c r="C144">
         <v>3607</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>1169</v>
-      </c>
-      <c r="C144">
-        <v>3575</v>
-      </c>
       <c r="D144">
-        <v>14484</v>
+        <v>14614</v>
       </c>
       <c r="E144">
-        <v>3392</v>
+        <v>3423</v>
       </c>
       <c r="F144">
-        <v>3578</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="1" t="s">
-        <v>143</v>
+      <c r="A145" t="s">
+        <v>150</v>
       </c>
       <c r="B145">
-        <v>1180</v>
+        <v>1198</v>
       </c>
       <c r="C145">
-        <v>3607</v>
+        <v>3662</v>
       </c>
       <c r="D145">
-        <v>14614</v>
+        <v>14837</v>
       </c>
       <c r="E145">
-        <v>3423</v>
+        <v>3475</v>
       </c>
       <c r="F145">
-        <v>3610</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="1" t="s">
-        <v>144</v>
+      <c r="A146" t="s">
+        <v>151</v>
       </c>
       <c r="B146">
+        <v>1195</v>
+      </c>
+      <c r="C146">
+        <v>3654</v>
+      </c>
+      <c r="D146">
+        <v>14807</v>
+      </c>
+      <c r="E146">
+        <v>3468</v>
+      </c>
+      <c r="F146">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>1188</v>
+      </c>
+      <c r="C147">
+        <v>3631</v>
+      </c>
+      <c r="D147">
+        <v>14713</v>
+      </c>
+      <c r="E147">
+        <v>3446</v>
+      </c>
+      <c r="F147">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
+        <v>1195</v>
+      </c>
+      <c r="C148">
+        <v>3653</v>
+      </c>
+      <c r="D148">
+        <v>14801</v>
+      </c>
+      <c r="E148">
+        <v>3467</v>
+      </c>
+      <c r="F148">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149">
+        <v>1197</v>
+      </c>
+      <c r="C149">
+        <v>3661</v>
+      </c>
+      <c r="D149">
+        <v>14834</v>
+      </c>
+      <c r="E149">
+        <v>3474</v>
+      </c>
+      <c r="F149">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
+        <v>1194</v>
+      </c>
+      <c r="C150">
+        <v>3649</v>
+      </c>
+      <c r="D150">
+        <v>14787</v>
+      </c>
+      <c r="E150">
+        <v>3464</v>
+      </c>
+      <c r="F150">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151">
         <v>1198</v>
       </c>
-      <c r="C146">
+      <c r="C151">
         <v>3662</v>
       </c>
-      <c r="D146">
+      <c r="D151">
         <v>14837</v>
       </c>
-      <c r="E146">
+      <c r="E151">
         <v>3475</v>
       </c>
-      <c r="F146">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>1195</v>
-      </c>
-      <c r="C147">
-        <v>3654</v>
-      </c>
-      <c r="D147">
-        <v>14807</v>
-      </c>
-      <c r="E147">
-        <v>3468</v>
-      </c>
-      <c r="F147">
-        <v>4014</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>1188</v>
-      </c>
-      <c r="C148">
-        <v>3631</v>
-      </c>
-      <c r="D148">
-        <v>14713</v>
-      </c>
-      <c r="E148">
-        <v>3446</v>
-      </c>
-      <c r="F148">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>1195</v>
-      </c>
-      <c r="C149">
-        <v>3653</v>
-      </c>
-      <c r="D149">
-        <v>14801</v>
-      </c>
-      <c r="E149">
-        <v>3467</v>
-      </c>
-      <c r="F149">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>1197</v>
-      </c>
-      <c r="C150">
-        <v>3661</v>
-      </c>
-      <c r="D150">
-        <v>14834</v>
-      </c>
-      <c r="E150">
-        <v>3474</v>
-      </c>
-      <c r="F150">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>1194</v>
-      </c>
-      <c r="C151">
-        <v>3649</v>
-      </c>
-      <c r="D151">
-        <v>14787</v>
-      </c>
-      <c r="E151">
-        <v>3464</v>
-      </c>
       <c r="F151">
-        <v>4499</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="1" t="s">
-        <v>150</v>
+      <c r="A152" t="s">
+        <v>157</v>
       </c>
       <c r="B152">
         <v>1198</v>
@@ -4267,8 +4267,8 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="1" t="s">
-        <v>151</v>
+      <c r="A153" t="s">
+        <v>158</v>
       </c>
       <c r="B153">
         <v>1198</v>
@@ -4287,108 +4287,108 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="1" t="s">
-        <v>152</v>
+      <c r="A154" t="s">
+        <v>159</v>
       </c>
       <c r="B154">
-        <v>1198</v>
+        <v>1395</v>
       </c>
       <c r="C154">
-        <v>3662</v>
+        <v>3491</v>
       </c>
       <c r="D154">
-        <v>14837</v>
+        <v>14920</v>
       </c>
       <c r="E154">
-        <v>3475</v>
+        <v>3495</v>
       </c>
       <c r="F154">
-        <v>4514</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1" t="s">
-        <v>153</v>
+      <c r="A155" t="s">
+        <v>160</v>
       </c>
       <c r="B155">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="C155">
-        <v>3491</v>
+        <v>3507</v>
       </c>
       <c r="D155">
-        <v>14920</v>
+        <v>14986</v>
       </c>
       <c r="E155">
-        <v>3495</v>
+        <v>3510</v>
       </c>
       <c r="F155">
-        <v>4539</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="1" t="s">
-        <v>154</v>
+      <c r="A156" t="s">
+        <v>161</v>
       </c>
       <c r="B156">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="C156">
-        <v>3507</v>
+        <v>3533</v>
       </c>
       <c r="D156">
-        <v>14986</v>
+        <v>15100</v>
       </c>
       <c r="E156">
-        <v>3510</v>
+        <v>3537</v>
       </c>
       <c r="F156">
-        <v>4559</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="1" t="s">
-        <v>155</v>
+      <c r="A157" t="s">
+        <v>162</v>
       </c>
       <c r="B157">
-        <v>1412</v>
+        <v>1454</v>
       </c>
       <c r="C157">
+        <v>3486</v>
+      </c>
+      <c r="D157">
+        <v>15084</v>
+      </c>
+      <c r="E157">
         <v>3533</v>
       </c>
-      <c r="D157">
-        <v>15100</v>
-      </c>
-      <c r="E157">
-        <v>3537</v>
-      </c>
       <c r="F157">
-        <v>4594</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="1" t="s">
-        <v>156</v>
+      <c r="A158" t="s">
+        <v>163</v>
       </c>
       <c r="B158">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="C158">
-        <v>3486</v>
+        <v>3476</v>
       </c>
       <c r="D158">
-        <v>15084</v>
+        <v>15039</v>
       </c>
       <c r="E158">
-        <v>3533</v>
+        <v>3523</v>
       </c>
       <c r="F158">
-        <v>4589</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="1" t="s">
-        <v>157</v>
+      <c r="A159" t="s">
+        <v>164</v>
       </c>
       <c r="B159">
         <v>1449</v>
@@ -4407,8 +4407,8 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="1" t="s">
-        <v>158</v>
+      <c r="A160" t="s">
+        <v>165</v>
       </c>
       <c r="B160">
         <v>1449</v>
@@ -4427,8 +4427,8 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="1" t="s">
-        <v>159</v>
+      <c r="A161" t="s">
+        <v>166</v>
       </c>
       <c r="B161">
         <v>1449</v>
@@ -4440,95 +4440,95 @@
         <v>15039</v>
       </c>
       <c r="E161">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="F161">
-        <v>4576</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="1" t="s">
-        <v>160</v>
+      <c r="A162" t="s">
+        <v>167</v>
       </c>
       <c r="B162">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C162">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="D162">
-        <v>15039</v>
+        <v>15049</v>
       </c>
       <c r="E162">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="F162">
-        <v>4575</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="1" t="s">
-        <v>161</v>
+      <c r="A163" t="s">
+        <v>168</v>
       </c>
       <c r="B163">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="C163">
-        <v>3478</v>
+        <v>3463</v>
       </c>
       <c r="D163">
-        <v>15049</v>
+        <v>14983</v>
       </c>
       <c r="E163">
-        <v>3525</v>
+        <v>3509</v>
       </c>
       <c r="F163">
-        <v>4578</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="1" t="s">
-        <v>162</v>
+      <c r="A164" t="s">
+        <v>169</v>
       </c>
       <c r="B164">
-        <v>1444</v>
+        <v>1460</v>
       </c>
       <c r="C164">
-        <v>3463</v>
+        <v>3503</v>
       </c>
       <c r="D164">
-        <v>14983</v>
+        <v>15154</v>
       </c>
       <c r="E164">
-        <v>3509</v>
+        <v>3549</v>
       </c>
       <c r="F164">
-        <v>4558</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="1" t="s">
-        <v>163</v>
+      <c r="A165" t="s">
+        <v>170</v>
       </c>
       <c r="B165">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="C165">
-        <v>3503</v>
+        <v>3516</v>
       </c>
       <c r="D165">
-        <v>15154</v>
+        <v>15211</v>
       </c>
       <c r="E165">
-        <v>3549</v>
+        <v>3563</v>
       </c>
       <c r="F165">
-        <v>4610</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="1" t="s">
-        <v>164</v>
+      <c r="A166" t="s">
+        <v>171</v>
       </c>
       <c r="B166">
         <v>1466</v>
@@ -4547,8 +4547,8 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="1" t="s">
-        <v>165</v>
+      <c r="A167" t="s">
+        <v>172</v>
       </c>
       <c r="B167">
         <v>1466</v>
@@ -4567,88 +4567,88 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="1" t="s">
-        <v>166</v>
+      <c r="A168" t="s">
+        <v>173</v>
       </c>
       <c r="B168">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="C168">
-        <v>3516</v>
+        <v>3500</v>
       </c>
       <c r="D168">
-        <v>15211</v>
+        <v>15145</v>
       </c>
       <c r="E168">
-        <v>3563</v>
+        <v>3547</v>
       </c>
       <c r="F168">
-        <v>4628</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="1" t="s">
-        <v>167</v>
+      <c r="A169" t="s">
+        <v>174</v>
       </c>
       <c r="B169">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C169">
-        <v>3500</v>
+        <v>3507</v>
       </c>
       <c r="D169">
-        <v>15145</v>
+        <v>15171</v>
       </c>
       <c r="E169">
-        <v>3547</v>
+        <v>3553</v>
       </c>
       <c r="F169">
-        <v>4608</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="1" t="s">
-        <v>168</v>
+      <c r="A170" t="s">
+        <v>175</v>
       </c>
       <c r="B170">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="C170">
-        <v>3507</v>
+        <v>3539</v>
       </c>
       <c r="D170">
-        <v>15171</v>
+        <v>15311</v>
       </c>
       <c r="E170">
-        <v>3553</v>
+        <v>3586</v>
       </c>
       <c r="F170">
-        <v>4616</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="1" t="s">
-        <v>169</v>
+      <c r="A171" t="s">
+        <v>176</v>
       </c>
       <c r="B171">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C171">
-        <v>3539</v>
+        <v>3532</v>
       </c>
       <c r="D171">
-        <v>15311</v>
+        <v>15280</v>
       </c>
       <c r="E171">
-        <v>3586</v>
+        <v>3579</v>
       </c>
       <c r="F171">
-        <v>4658</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="1" t="s">
-        <v>170</v>
+      <c r="A172" t="s">
+        <v>177</v>
       </c>
       <c r="B172">
         <v>1473</v>
@@ -4667,8 +4667,8 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="1" t="s">
-        <v>171</v>
+      <c r="A173" t="s">
+        <v>178</v>
       </c>
       <c r="B173">
         <v>1473</v>
@@ -4687,8 +4687,8 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="1" t="s">
-        <v>172</v>
+      <c r="A174" t="s">
+        <v>179</v>
       </c>
       <c r="B174">
         <v>1473</v>
@@ -4707,108 +4707,108 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="1" t="s">
-        <v>173</v>
+      <c r="A175" t="s">
+        <v>180</v>
       </c>
       <c r="B175">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="C175">
-        <v>3532</v>
+        <v>3519</v>
       </c>
       <c r="D175">
-        <v>15280</v>
+        <v>15224</v>
       </c>
       <c r="E175">
-        <v>3579</v>
+        <v>3566</v>
       </c>
       <c r="F175">
-        <v>4649</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="1" t="s">
-        <v>174</v>
+      <c r="A176" t="s">
+        <v>181</v>
       </c>
       <c r="B176">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="C176">
-        <v>3519</v>
+        <v>3480</v>
       </c>
       <c r="D176">
-        <v>15224</v>
+        <v>15057</v>
       </c>
       <c r="E176">
-        <v>3566</v>
+        <v>3527</v>
       </c>
       <c r="F176">
-        <v>4632</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="1" t="s">
-        <v>175</v>
+      <c r="A177" t="s">
+        <v>182</v>
       </c>
       <c r="B177">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C177">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="D177">
-        <v>15057</v>
+        <v>15046</v>
       </c>
       <c r="E177">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="F177">
-        <v>4581</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="1" t="s">
-        <v>176</v>
+      <c r="A178" t="s">
+        <v>183</v>
       </c>
       <c r="B178">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="C178">
-        <v>3478</v>
+        <v>3443</v>
       </c>
       <c r="D178">
-        <v>15046</v>
+        <v>14891</v>
       </c>
       <c r="E178">
-        <v>3524</v>
+        <v>3488</v>
       </c>
       <c r="F178">
-        <v>4577</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="1" t="s">
-        <v>177</v>
+      <c r="A179" t="s">
+        <v>184</v>
       </c>
       <c r="B179">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="C179">
-        <v>3443</v>
+        <v>3414</v>
       </c>
       <c r="D179">
-        <v>14891</v>
+        <v>14766</v>
       </c>
       <c r="E179">
-        <v>3488</v>
+        <v>3459</v>
       </c>
       <c r="F179">
-        <v>4949</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="1" t="s">
-        <v>178</v>
+      <c r="A180" t="s">
+        <v>185</v>
       </c>
       <c r="B180">
         <v>1423</v>
@@ -4827,8 +4827,8 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="1" t="s">
-        <v>179</v>
+      <c r="A181" t="s">
+        <v>186</v>
       </c>
       <c r="B181">
         <v>1423</v>
@@ -4847,108 +4847,108 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="1" t="s">
-        <v>180</v>
+      <c r="A182" t="s">
+        <v>187</v>
       </c>
       <c r="B182">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C182">
-        <v>3414</v>
+        <v>3418</v>
       </c>
       <c r="D182">
-        <v>14766</v>
+        <v>14783</v>
       </c>
       <c r="E182">
-        <v>3459</v>
+        <v>3462</v>
       </c>
       <c r="F182">
-        <v>4907</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="1" t="s">
-        <v>181</v>
+      <c r="A183" t="s">
+        <v>188</v>
       </c>
       <c r="B183">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="C183">
-        <v>3418</v>
+        <v>3431</v>
       </c>
       <c r="D183">
-        <v>14783</v>
+        <v>14838</v>
       </c>
       <c r="E183">
-        <v>3462</v>
+        <v>3476</v>
       </c>
       <c r="F183">
-        <v>4913</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="1" t="s">
-        <v>182</v>
+      <c r="A184" t="s">
+        <v>189</v>
       </c>
       <c r="B184">
-        <v>1430</v>
+        <v>1621</v>
       </c>
       <c r="C184">
-        <v>3431</v>
+        <v>3238</v>
       </c>
       <c r="D184">
-        <v>14838</v>
+        <v>14833</v>
       </c>
       <c r="E184">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="F184">
-        <v>4931</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="1" t="s">
-        <v>183</v>
+      <c r="A185" t="s">
+        <v>190</v>
       </c>
       <c r="B185">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="C185">
-        <v>3238</v>
+        <v>3223</v>
       </c>
       <c r="D185">
-        <v>14833</v>
+        <v>14764</v>
       </c>
       <c r="E185">
-        <v>3474</v>
+        <v>3458</v>
       </c>
       <c r="F185">
-        <v>4930</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="1" t="s">
-        <v>184</v>
+      <c r="A186" t="s">
+        <v>191</v>
       </c>
       <c r="B186">
-        <v>1613</v>
+        <v>1620</v>
       </c>
       <c r="C186">
-        <v>3223</v>
+        <v>3236</v>
       </c>
       <c r="D186">
-        <v>14764</v>
+        <v>14822</v>
       </c>
       <c r="E186">
-        <v>3458</v>
+        <v>3472</v>
       </c>
       <c r="F186">
-        <v>4906</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="1" t="s">
-        <v>185</v>
+      <c r="A187" t="s">
+        <v>192</v>
       </c>
       <c r="B187">
         <v>1620</v>
@@ -4967,8 +4967,8 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="1" t="s">
-        <v>186</v>
+      <c r="A188" t="s">
+        <v>193</v>
       </c>
       <c r="B188">
         <v>1620</v>
@@ -4987,108 +4987,108 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="1" t="s">
-        <v>187</v>
+      <c r="A189" t="s">
+        <v>194</v>
       </c>
       <c r="B189">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="C189">
-        <v>3236</v>
+        <v>3212</v>
       </c>
       <c r="D189">
-        <v>14822</v>
+        <v>14714</v>
       </c>
       <c r="E189">
-        <v>3472</v>
+        <v>3446</v>
       </c>
       <c r="F189">
-        <v>4926</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="1" t="s">
-        <v>188</v>
+      <c r="A190" t="s">
+        <v>195</v>
       </c>
       <c r="B190">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="C190">
-        <v>3212</v>
+        <v>3198</v>
       </c>
       <c r="D190">
-        <v>14714</v>
+        <v>14649</v>
       </c>
       <c r="E190">
-        <v>3446</v>
+        <v>3431</v>
       </c>
       <c r="F190">
-        <v>4890</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="1" t="s">
-        <v>189</v>
+      <c r="A191" t="s">
+        <v>196</v>
       </c>
       <c r="B191">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="C191">
-        <v>3198</v>
+        <v>3186</v>
       </c>
       <c r="D191">
-        <v>14649</v>
+        <v>14594</v>
       </c>
       <c r="E191">
-        <v>3431</v>
+        <v>3418</v>
       </c>
       <c r="F191">
-        <v>4868</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="1" t="s">
-        <v>190</v>
+      <c r="A192" t="s">
+        <v>197</v>
       </c>
       <c r="B192">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="C192">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="D192">
-        <v>14594</v>
+        <v>14636</v>
       </c>
       <c r="E192">
-        <v>3418</v>
+        <v>3428</v>
       </c>
       <c r="F192">
-        <v>4850</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="1" t="s">
-        <v>191</v>
+      <c r="A193" t="s">
+        <v>198</v>
       </c>
       <c r="B193">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="C193">
-        <v>3188</v>
+        <v>3179</v>
       </c>
       <c r="D193">
-        <v>14636</v>
+        <v>14595</v>
       </c>
       <c r="E193">
-        <v>3428</v>
+        <v>3419</v>
       </c>
       <c r="F193">
-        <v>4872</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="1" t="s">
-        <v>192</v>
+      <c r="A194" t="s">
+        <v>199</v>
       </c>
       <c r="B194">
         <v>1602</v>
@@ -5107,8 +5107,8 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="1" t="s">
-        <v>193</v>
+      <c r="A195" t="s">
+        <v>200</v>
       </c>
       <c r="B195">
         <v>1602</v>
@@ -5127,8 +5127,8 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="1" t="s">
-        <v>194</v>
+      <c r="A196" t="s">
+        <v>201</v>
       </c>
       <c r="B196">
         <v>1602</v>
@@ -5147,88 +5147,88 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="1" t="s">
-        <v>195</v>
+      <c r="A197" t="s">
+        <v>202</v>
       </c>
       <c r="B197">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C197">
-        <v>3179</v>
+        <v>3184</v>
       </c>
       <c r="D197">
-        <v>14595</v>
+        <v>14617</v>
       </c>
       <c r="E197">
-        <v>3419</v>
+        <v>3424</v>
       </c>
       <c r="F197">
-        <v>4858</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="1" t="s">
-        <v>196</v>
+      <c r="A198" t="s">
+        <v>203</v>
       </c>
       <c r="B198">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C198">
-        <v>3184</v>
+        <v>3178</v>
       </c>
       <c r="D198">
-        <v>14617</v>
+        <v>14588</v>
       </c>
       <c r="E198">
-        <v>3424</v>
+        <v>3417</v>
       </c>
       <c r="F198">
-        <v>4866</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="1" t="s">
-        <v>197</v>
+      <c r="A199" t="s">
+        <v>204</v>
       </c>
       <c r="B199">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C199">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="D199">
-        <v>14588</v>
+        <v>14571</v>
       </c>
       <c r="E199">
-        <v>3417</v>
+        <v>3413</v>
       </c>
       <c r="F199">
-        <v>4856</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="1" t="s">
-        <v>198</v>
+      <c r="A200" t="s">
+        <v>205</v>
       </c>
       <c r="B200">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="C200">
-        <v>3174</v>
+        <v>3161</v>
       </c>
       <c r="D200">
-        <v>14571</v>
+        <v>14511</v>
       </c>
       <c r="E200">
-        <v>3413</v>
+        <v>3399</v>
       </c>
       <c r="F200">
-        <v>4850</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="1" t="s">
-        <v>199</v>
+      <c r="A201" t="s">
+        <v>206</v>
       </c>
       <c r="B201">
         <v>1592</v>
@@ -5247,8 +5247,8 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="1" t="s">
-        <v>200</v>
+      <c r="A202" t="s">
+        <v>207</v>
       </c>
       <c r="B202">
         <v>1592</v>
@@ -5267,108 +5267,108 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="1" t="s">
-        <v>201</v>
+      <c r="A203" t="s">
+        <v>208</v>
       </c>
       <c r="B203">
-        <v>1592</v>
+        <v>1605</v>
       </c>
       <c r="C203">
-        <v>3161</v>
+        <v>3185</v>
       </c>
       <c r="D203">
-        <v>14511</v>
+        <v>14624</v>
       </c>
       <c r="E203">
-        <v>3399</v>
+        <v>3425</v>
       </c>
       <c r="F203">
-        <v>4830</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="1" t="s">
-        <v>202</v>
+      <c r="A204" t="s">
+        <v>209</v>
       </c>
       <c r="B204">
-        <v>1605</v>
+        <v>1620</v>
       </c>
       <c r="C204">
-        <v>3185</v>
+        <v>3215</v>
       </c>
       <c r="D204">
-        <v>14624</v>
+        <v>14762</v>
       </c>
       <c r="E204">
-        <v>3425</v>
+        <v>3458</v>
       </c>
       <c r="F204">
-        <v>4868</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="1" t="s">
-        <v>203</v>
+      <c r="A205" t="s">
+        <v>210</v>
       </c>
       <c r="B205">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="C205">
-        <v>3215</v>
+        <v>3222</v>
       </c>
       <c r="D205">
-        <v>14762</v>
+        <v>14792</v>
       </c>
       <c r="E205">
-        <v>3458</v>
+        <v>3465</v>
       </c>
       <c r="F205">
-        <v>4914</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="1" t="s">
-        <v>204</v>
+      <c r="A206" t="s">
+        <v>211</v>
       </c>
       <c r="B206">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="C206">
-        <v>3222</v>
+        <v>3233</v>
       </c>
       <c r="D206">
-        <v>14792</v>
+        <v>14841</v>
       </c>
       <c r="E206">
-        <v>3465</v>
+        <v>3476</v>
       </c>
       <c r="F206">
-        <v>4924</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="1" t="s">
-        <v>205</v>
+      <c r="A207" t="s">
+        <v>212</v>
       </c>
       <c r="B207">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="C207">
-        <v>3233</v>
+        <v>3244</v>
       </c>
       <c r="D207">
-        <v>14841</v>
+        <v>14891</v>
       </c>
       <c r="E207">
-        <v>3476</v>
+        <v>3488</v>
       </c>
       <c r="F207">
-        <v>4940</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="1" t="s">
-        <v>206</v>
+      <c r="A208" t="s">
+        <v>213</v>
       </c>
       <c r="B208">
         <v>1634</v>
@@ -5387,8 +5387,8 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="1" t="s">
-        <v>207</v>
+      <c r="A209" t="s">
+        <v>214</v>
       </c>
       <c r="B209">
         <v>1634</v>
@@ -5407,108 +5407,108 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="1" t="s">
-        <v>208</v>
+      <c r="A210" t="s">
+        <v>215</v>
       </c>
       <c r="B210">
-        <v>1634</v>
+        <v>1642</v>
       </c>
       <c r="C210">
-        <v>3244</v>
+        <v>3259</v>
       </c>
       <c r="D210">
-        <v>14891</v>
+        <v>14962</v>
       </c>
       <c r="E210">
-        <v>3488</v>
+        <v>3504</v>
       </c>
       <c r="F210">
-        <v>4957</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="1" t="s">
-        <v>209</v>
+      <c r="A211" t="s">
+        <v>216</v>
       </c>
       <c r="B211">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C211">
-        <v>3259</v>
+        <v>3251</v>
       </c>
       <c r="D211">
-        <v>14962</v>
+        <v>14926</v>
       </c>
       <c r="E211">
-        <v>3504</v>
+        <v>3496</v>
       </c>
       <c r="F211">
-        <v>4980</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="1" t="s">
-        <v>210</v>
+      <c r="A212" t="s">
+        <v>217</v>
       </c>
       <c r="B212">
-        <v>1638</v>
+        <v>1654</v>
       </c>
       <c r="C212">
-        <v>3251</v>
+        <v>3283</v>
       </c>
       <c r="D212">
-        <v>14926</v>
+        <v>15072</v>
       </c>
       <c r="E212">
-        <v>3496</v>
+        <v>3530</v>
       </c>
       <c r="F212">
-        <v>4968</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="1" t="s">
-        <v>211</v>
+      <c r="A213" t="s">
+        <v>218</v>
       </c>
       <c r="B213">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="C213">
-        <v>3283</v>
+        <v>3268</v>
       </c>
       <c r="D213">
-        <v>15072</v>
+        <v>15004</v>
       </c>
       <c r="E213">
-        <v>3530</v>
+        <v>3514</v>
       </c>
       <c r="F213">
-        <v>5017</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="1" t="s">
-        <v>212</v>
+      <c r="A214" t="s">
+        <v>219</v>
       </c>
       <c r="B214">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="C214">
-        <v>3268</v>
+        <v>3290</v>
       </c>
       <c r="D214">
-        <v>15004</v>
+        <v>15103</v>
       </c>
       <c r="E214">
-        <v>3514</v>
+        <v>3538</v>
       </c>
       <c r="F214">
-        <v>4994</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="1" t="s">
-        <v>213</v>
+      <c r="A215" t="s">
+        <v>220</v>
       </c>
       <c r="B215">
         <v>1657</v>
@@ -5527,8 +5527,8 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="1" t="s">
-        <v>214</v>
+      <c r="A216" t="s">
+        <v>221</v>
       </c>
       <c r="B216">
         <v>1657</v>
@@ -5547,108 +5547,108 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="1" t="s">
-        <v>215</v>
+      <c r="A217" t="s">
+        <v>222</v>
       </c>
       <c r="B217">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C217">
-        <v>3290</v>
+        <v>3283</v>
       </c>
       <c r="D217">
-        <v>15103</v>
+        <v>15074</v>
       </c>
       <c r="E217">
-        <v>3538</v>
+        <v>3531</v>
       </c>
       <c r="F217">
-        <v>5027</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="1" t="s">
-        <v>216</v>
+      <c r="A218" t="s">
+        <v>223</v>
       </c>
       <c r="B218">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="C218">
-        <v>3283</v>
+        <v>3295</v>
       </c>
       <c r="D218">
-        <v>15074</v>
+        <v>15128</v>
       </c>
       <c r="E218">
-        <v>3531</v>
+        <v>3543</v>
       </c>
       <c r="F218">
-        <v>5018</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="1" t="s">
-        <v>217</v>
+      <c r="A219" t="s">
+        <v>224</v>
       </c>
       <c r="B219">
-        <v>1660</v>
+        <v>1684</v>
       </c>
       <c r="C219">
-        <v>3295</v>
+        <v>3341</v>
       </c>
       <c r="D219">
-        <v>15128</v>
+        <v>15340</v>
       </c>
       <c r="E219">
-        <v>3543</v>
+        <v>3593</v>
       </c>
       <c r="F219">
-        <v>5036</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="1" t="s">
-        <v>218</v>
+      <c r="A220" t="s">
+        <v>225</v>
       </c>
       <c r="B220">
-        <v>1684</v>
+        <v>1697</v>
       </c>
       <c r="C220">
-        <v>3341</v>
+        <v>3337</v>
       </c>
       <c r="D220">
-        <v>15340</v>
+        <v>15368</v>
       </c>
       <c r="E220">
-        <v>3593</v>
+        <v>3600</v>
       </c>
       <c r="F220">
-        <v>5106</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="1" t="s">
-        <v>219</v>
+      <c r="A221" t="s">
+        <v>226</v>
       </c>
       <c r="B221">
-        <v>1697</v>
+        <v>1708</v>
       </c>
       <c r="C221">
-        <v>3337</v>
+        <v>3360</v>
       </c>
       <c r="D221">
-        <v>15368</v>
+        <v>15473</v>
       </c>
       <c r="E221">
-        <v>3600</v>
+        <v>3624</v>
       </c>
       <c r="F221">
-        <v>5115</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="1" t="s">
-        <v>220</v>
+      <c r="A222" t="s">
+        <v>227</v>
       </c>
       <c r="B222">
         <v>1708</v>
@@ -5667,8 +5667,8 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="1" t="s">
-        <v>221</v>
+      <c r="A223" t="s">
+        <v>228</v>
       </c>
       <c r="B223">
         <v>1708</v>
@@ -5687,88 +5687,88 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="1" t="s">
-        <v>222</v>
+      <c r="A224" t="s">
+        <v>229</v>
       </c>
       <c r="B224">
-        <v>1708</v>
+        <v>1692</v>
       </c>
       <c r="C224">
-        <v>3360</v>
+        <v>3328</v>
       </c>
       <c r="D224">
-        <v>15473</v>
+        <v>15326</v>
       </c>
       <c r="E224">
-        <v>3624</v>
+        <v>3590</v>
       </c>
       <c r="F224">
-        <v>5150</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="1" t="s">
-        <v>223</v>
+      <c r="A225" t="s">
+        <v>230</v>
       </c>
       <c r="B225">
-        <v>1692</v>
+        <v>1704</v>
       </c>
       <c r="C225">
-        <v>3328</v>
+        <v>3353</v>
       </c>
       <c r="D225">
-        <v>15326</v>
+        <v>15438</v>
       </c>
       <c r="E225">
-        <v>3590</v>
+        <v>3616</v>
       </c>
       <c r="F225">
-        <v>5101</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="1" t="s">
-        <v>224</v>
+      <c r="A226" t="s">
+        <v>231</v>
       </c>
       <c r="B226">
-        <v>1704</v>
+        <v>1688</v>
       </c>
       <c r="C226">
-        <v>3353</v>
+        <v>3321</v>
       </c>
       <c r="D226">
-        <v>15438</v>
+        <v>15293</v>
       </c>
       <c r="E226">
-        <v>3616</v>
+        <v>3582</v>
       </c>
       <c r="F226">
-        <v>5139</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="1" t="s">
-        <v>225</v>
+      <c r="A227" t="s">
+        <v>232</v>
       </c>
       <c r="B227">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C227">
-        <v>3321</v>
+        <v>3336</v>
       </c>
       <c r="D227">
-        <v>15293</v>
+        <v>15363</v>
       </c>
       <c r="E227">
-        <v>3582</v>
+        <v>3598</v>
       </c>
       <c r="F227">
-        <v>5090</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="1" t="s">
-        <v>226</v>
+      <c r="A228" t="s">
+        <v>233</v>
       </c>
       <c r="B228">
         <v>1696</v>
@@ -5787,8 +5787,8 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="1" t="s">
-        <v>227</v>
+      <c r="A229" t="s">
+        <v>234</v>
       </c>
       <c r="B229">
         <v>1696</v>
@@ -5807,8 +5807,8 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="1" t="s">
-        <v>228</v>
+      <c r="A230" t="s">
+        <v>235</v>
       </c>
       <c r="B230">
         <v>1696</v>
@@ -5827,108 +5827,108 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="1" t="s">
-        <v>229</v>
+      <c r="A231" t="s">
+        <v>236</v>
       </c>
       <c r="B231">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="C231">
-        <v>3336</v>
+        <v>3296</v>
       </c>
       <c r="D231">
-        <v>15363</v>
+        <v>15177</v>
       </c>
       <c r="E231">
-        <v>3598</v>
+        <v>3555</v>
       </c>
       <c r="F231">
-        <v>5114</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="1" t="s">
-        <v>230</v>
+      <c r="A232" t="s">
+        <v>237</v>
       </c>
       <c r="B232">
+        <v>1673</v>
+      </c>
+      <c r="C232">
+        <v>3291</v>
+      </c>
+      <c r="D232">
+        <v>15154</v>
+      </c>
+      <c r="E232">
+        <v>3549</v>
+      </c>
+      <c r="F232">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233">
         <v>1675</v>
       </c>
-      <c r="C232">
-        <v>3296</v>
-      </c>
-      <c r="D232">
-        <v>15177</v>
-      </c>
-      <c r="E232">
-        <v>3555</v>
-      </c>
-      <c r="F232">
-        <v>5052</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>1673</v>
-      </c>
       <c r="C233">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="D233">
-        <v>15154</v>
+        <v>15170</v>
       </c>
       <c r="E233">
-        <v>3549</v>
+        <v>3553</v>
       </c>
       <c r="F233">
-        <v>5044</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="1" t="s">
-        <v>232</v>
+      <c r="A234" t="s">
+        <v>239</v>
       </c>
       <c r="B234">
-        <v>1675</v>
+        <v>1694</v>
       </c>
       <c r="C234">
-        <v>3294</v>
+        <v>3333</v>
       </c>
       <c r="D234">
-        <v>15170</v>
+        <v>15349</v>
       </c>
       <c r="E234">
-        <v>3553</v>
+        <v>3595</v>
       </c>
       <c r="F234">
-        <v>5049</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="1" t="s">
-        <v>233</v>
+      <c r="A235" t="s">
+        <v>240</v>
       </c>
       <c r="B235">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C235">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="D235">
-        <v>15349</v>
+        <v>15339</v>
       </c>
       <c r="E235">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="F235">
-        <v>5109</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="1" t="s">
-        <v>234</v>
+      <c r="A236" t="s">
+        <v>241</v>
       </c>
       <c r="B236">
         <v>1693</v>
@@ -5947,8 +5947,8 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="1" t="s">
-        <v>235</v>
+      <c r="A237" t="s">
+        <v>242</v>
       </c>
       <c r="B237">
         <v>1693</v>
@@ -5967,108 +5967,108 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="1" t="s">
-        <v>236</v>
+      <c r="A238" t="s">
+        <v>243</v>
       </c>
       <c r="B238">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="C238">
-        <v>3331</v>
+        <v>3318</v>
       </c>
       <c r="D238">
-        <v>15339</v>
+        <v>15280</v>
       </c>
       <c r="E238">
-        <v>3593</v>
+        <v>3579</v>
       </c>
       <c r="F238">
-        <v>5106</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="1" t="s">
-        <v>237</v>
+      <c r="A239" t="s">
+        <v>244</v>
       </c>
       <c r="B239">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="C239">
-        <v>3318</v>
+        <v>3299</v>
       </c>
       <c r="D239">
-        <v>15280</v>
+        <v>15192</v>
       </c>
       <c r="E239">
-        <v>3579</v>
+        <v>3558</v>
       </c>
       <c r="F239">
-        <v>5086</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="1" t="s">
-        <v>238</v>
+      <c r="A240" t="s">
+        <v>245</v>
       </c>
       <c r="B240">
+        <v>1662</v>
+      </c>
+      <c r="C240">
+        <v>3270</v>
+      </c>
+      <c r="D240">
+        <v>15057</v>
+      </c>
+      <c r="E240">
+        <v>3527</v>
+      </c>
+      <c r="F240">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241">
+        <v>1665</v>
+      </c>
+      <c r="C241">
+        <v>3275</v>
+      </c>
+      <c r="D241">
+        <v>15079</v>
+      </c>
+      <c r="E241">
+        <v>3532</v>
+      </c>
+      <c r="F241">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242">
         <v>1677</v>
       </c>
-      <c r="C240">
+      <c r="C242">
         <v>3299</v>
       </c>
-      <c r="D240">
-        <v>15192</v>
-      </c>
-      <c r="E240">
+      <c r="D242">
+        <v>15191</v>
+      </c>
+      <c r="E242">
         <v>3558</v>
       </c>
-      <c r="F240">
-        <v>5057</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>1662</v>
-      </c>
-      <c r="C241">
-        <v>3270</v>
-      </c>
-      <c r="D241">
-        <v>15057</v>
-      </c>
-      <c r="E241">
-        <v>3527</v>
-      </c>
-      <c r="F241">
-        <v>5012</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>1665</v>
-      </c>
-      <c r="C242">
-        <v>3275</v>
-      </c>
-      <c r="D242">
-        <v>15079</v>
-      </c>
-      <c r="E242">
-        <v>3532</v>
-      </c>
       <c r="F242">
-        <v>5019</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="1" t="s">
-        <v>241</v>
+      <c r="A243" t="s">
+        <v>248</v>
       </c>
       <c r="B243">
         <v>1677</v>
@@ -6087,8 +6087,8 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="1" t="s">
-        <v>242</v>
+      <c r="A244" t="s">
+        <v>249</v>
       </c>
       <c r="B244">
         <v>1677</v>
@@ -6107,108 +6107,108 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="1" t="s">
-        <v>243</v>
+      <c r="A245" t="s">
+        <v>250</v>
       </c>
       <c r="B245">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C245">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="D245">
-        <v>15191</v>
+        <v>15177</v>
       </c>
       <c r="E245">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="F245">
-        <v>5056</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="1" t="s">
-        <v>244</v>
+      <c r="A246" t="s">
+        <v>251</v>
       </c>
       <c r="B246">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C246">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="D246">
-        <v>15177</v>
+        <v>15165</v>
       </c>
       <c r="E246">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="F246">
-        <v>5052</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="1" t="s">
-        <v>245</v>
+      <c r="A247" t="s">
+        <v>252</v>
       </c>
       <c r="B247">
-        <v>1674</v>
+        <v>1690</v>
       </c>
       <c r="C247">
-        <v>3293</v>
+        <v>3324</v>
       </c>
       <c r="D247">
-        <v>15165</v>
+        <v>15308</v>
       </c>
       <c r="E247">
-        <v>3552</v>
+        <v>3585</v>
       </c>
       <c r="F247">
-        <v>5048</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="1" t="s">
-        <v>246</v>
+      <c r="A248" t="s">
+        <v>253</v>
       </c>
       <c r="B248">
-        <v>1690</v>
+        <v>1705</v>
       </c>
       <c r="C248">
-        <v>3324</v>
+        <v>3337</v>
       </c>
       <c r="D248">
-        <v>15308</v>
+        <v>15405</v>
       </c>
       <c r="E248">
-        <v>3585</v>
+        <v>3608</v>
       </c>
       <c r="F248">
-        <v>5095</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="1" t="s">
-        <v>247</v>
+      <c r="A249" t="s">
+        <v>254</v>
       </c>
       <c r="B249">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C249">
-        <v>3337</v>
+        <v>3352</v>
       </c>
       <c r="D249">
-        <v>15405</v>
+        <v>15473</v>
       </c>
       <c r="E249">
-        <v>3608</v>
+        <v>3624</v>
       </c>
       <c r="F249">
-        <v>5128</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="1" t="s">
-        <v>248</v>
+      <c r="A250" t="s">
+        <v>255</v>
       </c>
       <c r="B250">
         <v>1713</v>
@@ -6227,8 +6227,8 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="1" t="s">
-        <v>249</v>
+      <c r="A251" t="s">
+        <v>256</v>
       </c>
       <c r="B251">
         <v>1713</v>
@@ -6247,28 +6247,28 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="1" t="s">
-        <v>250</v>
+      <c r="A252" t="s">
+        <v>257</v>
       </c>
       <c r="B252">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="C252">
-        <v>3352</v>
+        <v>3372</v>
       </c>
       <c r="D252">
-        <v>15473</v>
+        <v>15565</v>
       </c>
       <c r="E252">
-        <v>3624</v>
+        <v>3646</v>
       </c>
       <c r="F252">
-        <v>5150</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="1" t="s">
-        <v>251</v>
+      <c r="A253" t="s">
+        <v>258</v>
       </c>
       <c r="B253">
         <v>1723</v>
@@ -6287,68 +6287,68 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="1" t="s">
-        <v>252</v>
+      <c r="A254" t="s">
+        <v>259</v>
       </c>
       <c r="B254">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="C254">
-        <v>3372</v>
+        <v>3384</v>
       </c>
       <c r="D254">
-        <v>15565</v>
+        <v>15623</v>
       </c>
       <c r="E254">
-        <v>3646</v>
+        <v>3659</v>
       </c>
       <c r="F254">
-        <v>5181</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="1" t="s">
-        <v>253</v>
+      <c r="A255" t="s">
+        <v>260</v>
       </c>
       <c r="B255">
-        <v>1729</v>
+        <v>1742</v>
       </c>
       <c r="C255">
-        <v>3384</v>
+        <v>3409</v>
       </c>
       <c r="D255">
-        <v>15623</v>
+        <v>15736</v>
       </c>
       <c r="E255">
-        <v>3659</v>
+        <v>3686</v>
       </c>
       <c r="F255">
-        <v>5200</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="1" t="s">
-        <v>254</v>
+      <c r="A256" t="s">
+        <v>261</v>
       </c>
       <c r="B256">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="C256">
-        <v>3409</v>
+        <v>3415</v>
       </c>
       <c r="D256">
-        <v>15736</v>
+        <v>15764</v>
       </c>
       <c r="E256">
-        <v>3686</v>
+        <v>3692</v>
       </c>
       <c r="F256">
-        <v>5238</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="1" t="s">
-        <v>255</v>
+      <c r="A257" t="s">
+        <v>262</v>
       </c>
       <c r="B257">
         <v>1745</v>
@@ -6367,8 +6367,8 @@
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="1" t="s">
-        <v>256</v>
+      <c r="A258" t="s">
+        <v>263</v>
       </c>
       <c r="B258">
         <v>1745</v>
@@ -6387,108 +6387,108 @@
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="1" t="s">
-        <v>257</v>
+      <c r="A259" t="s">
+        <v>264</v>
       </c>
       <c r="B259">
-        <v>1745</v>
+        <v>1756</v>
       </c>
       <c r="C259">
-        <v>3415</v>
+        <v>3436</v>
       </c>
       <c r="D259">
-        <v>15764</v>
+        <v>15863</v>
       </c>
       <c r="E259">
-        <v>3692</v>
+        <v>3715</v>
       </c>
       <c r="F259">
-        <v>5247</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="1" t="s">
-        <v>258</v>
+      <c r="A260" t="s">
+        <v>265</v>
       </c>
       <c r="B260">
-        <v>1756</v>
+        <v>1761</v>
       </c>
       <c r="C260">
-        <v>3436</v>
+        <v>3445</v>
       </c>
       <c r="D260">
-        <v>15863</v>
+        <v>15906</v>
       </c>
       <c r="E260">
-        <v>3715</v>
+        <v>3725</v>
       </c>
       <c r="F260">
-        <v>5280</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="1" t="s">
-        <v>259</v>
+      <c r="A261" t="s">
+        <v>266</v>
       </c>
       <c r="B261">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="C261">
-        <v>3445</v>
+        <v>3433</v>
       </c>
       <c r="D261">
-        <v>15906</v>
+        <v>15848</v>
       </c>
       <c r="E261">
-        <v>3725</v>
+        <v>3712</v>
       </c>
       <c r="F261">
-        <v>5294</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="1" t="s">
-        <v>260</v>
+      <c r="A262" t="s">
+        <v>267</v>
       </c>
       <c r="B262">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C262">
-        <v>3433</v>
+        <v>3429</v>
       </c>
       <c r="D262">
-        <v>15848</v>
+        <v>15830</v>
       </c>
       <c r="E262">
-        <v>3712</v>
+        <v>3708</v>
       </c>
       <c r="F262">
-        <v>5275</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="1" t="s">
-        <v>261</v>
+      <c r="A263" t="s">
+        <v>268</v>
       </c>
       <c r="B263">
-        <v>1752</v>
+        <v>1780</v>
       </c>
       <c r="C263">
-        <v>3429</v>
+        <v>3484</v>
       </c>
       <c r="D263">
-        <v>15830</v>
+        <v>16085</v>
       </c>
       <c r="E263">
-        <v>3708</v>
+        <v>3767</v>
       </c>
       <c r="F263">
-        <v>5269</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="1" t="s">
-        <v>262</v>
+      <c r="A264" t="s">
+        <v>269</v>
       </c>
       <c r="B264">
         <v>1780</v>
@@ -6507,8 +6507,8 @@
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="1" t="s">
-        <v>263</v>
+      <c r="A265" t="s">
+        <v>270</v>
       </c>
       <c r="B265">
         <v>1780</v>
@@ -6527,88 +6527,88 @@
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="1" t="s">
-        <v>264</v>
+      <c r="A266" t="s">
+        <v>271</v>
       </c>
       <c r="B266">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C266">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="D266">
-        <v>16085</v>
+        <v>16075</v>
       </c>
       <c r="E266">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="F266">
-        <v>5354</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="1" t="s">
-        <v>265</v>
+      <c r="A267" t="s">
+        <v>272</v>
       </c>
       <c r="B267">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="C267">
-        <v>3482</v>
+        <v>3450</v>
       </c>
       <c r="D267">
-        <v>16075</v>
+        <v>15925</v>
       </c>
       <c r="E267">
-        <v>3765</v>
+        <v>3730</v>
       </c>
       <c r="F267">
-        <v>5351</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="1" t="s">
-        <v>266</v>
+      <c r="A268" t="s">
+        <v>273</v>
       </c>
       <c r="B268">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="C268">
-        <v>3450</v>
+        <v>3458</v>
       </c>
       <c r="D268">
-        <v>15925</v>
+        <v>15963</v>
       </c>
       <c r="E268">
-        <v>3730</v>
+        <v>3739</v>
       </c>
       <c r="F268">
-        <v>5301</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="1" t="s">
-        <v>267</v>
+      <c r="A269" t="s">
+        <v>274</v>
       </c>
       <c r="B269">
-        <v>1767</v>
+        <v>1798</v>
       </c>
       <c r="C269">
-        <v>3458</v>
+        <v>3519</v>
       </c>
       <c r="D269">
-        <v>15963</v>
+        <v>16246</v>
       </c>
       <c r="E269">
-        <v>3739</v>
+        <v>3805</v>
       </c>
       <c r="F269">
-        <v>5313</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="1" t="s">
-        <v>268</v>
+      <c r="A270" t="s">
+        <v>275</v>
       </c>
       <c r="B270">
         <v>1798</v>
@@ -6627,8 +6627,8 @@
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="1" t="s">
-        <v>269</v>
+      <c r="A271" t="s">
+        <v>276</v>
       </c>
       <c r="B271">
         <v>1798</v>
@@ -6647,8 +6647,8 @@
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="1" t="s">
-        <v>270</v>
+      <c r="A272" t="s">
+        <v>277</v>
       </c>
       <c r="B272">
         <v>1798</v>
@@ -6667,68 +6667,68 @@
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="1" t="s">
-        <v>271</v>
+      <c r="A273" t="s">
+        <v>278</v>
       </c>
       <c r="B273">
-        <v>1798</v>
+        <v>1813</v>
       </c>
       <c r="C273">
-        <v>3519</v>
+        <v>3549</v>
       </c>
       <c r="D273">
-        <v>16246</v>
+        <v>16383</v>
       </c>
       <c r="E273">
-        <v>3805</v>
+        <v>3837</v>
       </c>
       <c r="F273">
-        <v>5408</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="1" t="s">
-        <v>272</v>
+      <c r="A274" t="s">
+        <v>279</v>
       </c>
       <c r="B274">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C274">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="D274">
-        <v>16383</v>
+        <v>16374</v>
       </c>
       <c r="E274">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="F274">
-        <v>5453</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="1" t="s">
-        <v>273</v>
+      <c r="A275" t="s">
+        <v>280</v>
       </c>
       <c r="B275">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C275">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="D275">
-        <v>16374</v>
+        <v>16360</v>
       </c>
       <c r="E275">
-        <v>3835</v>
+        <v>3832</v>
       </c>
       <c r="F275">
-        <v>5450</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="1" t="s">
-        <v>274</v>
+      <c r="A276" t="s">
+        <v>281</v>
       </c>
       <c r="B276">
         <v>1811</v>
@@ -6743,26 +6743,6 @@
         <v>3832</v>
       </c>
       <c r="F276">
-        <v>5446</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>1811</v>
-      </c>
-      <c r="C277">
-        <v>3544</v>
-      </c>
-      <c r="D277">
-        <v>16360</v>
-      </c>
-      <c r="E277">
-        <v>3832</v>
-      </c>
-      <c r="F277">
         <v>5446</v>
       </c>
     </row>
